--- a/classification/label.xlsx
+++ b/classification/label.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="6">
   <si>
     <t>File Number</t>
   </si>
@@ -121,9 +121,7 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -420,7 +418,7 @@
         <v>5.0</v>
       </c>
       <c r="B4" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C4" s="4">
         <v>1.0</v>
@@ -430,7 +428,7 @@
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -458,7 +456,7 @@
         <v>13.0</v>
       </c>
       <c r="B6" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C6" s="4">
         <v>1.0</v>
@@ -468,7 +466,7 @@
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -496,7 +494,7 @@
         <v>28.0</v>
       </c>
       <c r="B8" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C8" s="4">
         <v>1.0</v>
@@ -506,7 +504,7 @@
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -517,15 +515,15 @@
       <c r="B9" s="4">
         <v>0.0</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>5</v>
+      <c r="C9" s="4">
+        <v>1.0</v>
       </c>
       <c r="D9" s="4">
         <v>0.0</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0-0</v>
+        <v>010</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -553,7 +551,7 @@
         <v>54.0</v>
       </c>
       <c r="B11" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>5</v>
@@ -563,7 +561,7 @@
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1-1</v>
+        <v>0-1</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -591,7 +589,7 @@
         <v>97.0</v>
       </c>
       <c r="B13" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C13" s="4">
         <v>1.0</v>
@@ -601,7 +599,7 @@
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -648,7 +646,7 @@
         <v>107.0</v>
       </c>
       <c r="B16" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C16" s="4">
         <v>0.0</v>
@@ -658,7 +656,7 @@
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -667,7 +665,7 @@
         <v>108.0</v>
       </c>
       <c r="B17" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C17" s="4">
         <v>1.0</v>
@@ -677,7 +675,7 @@
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -686,7 +684,7 @@
         <v>112.0</v>
       </c>
       <c r="B18" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C18" s="4">
         <v>1.0</v>
@@ -696,7 +694,7 @@
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -705,7 +703,7 @@
         <v>113.0</v>
       </c>
       <c r="B19" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C19" s="4">
         <v>0.0</v>
@@ -715,7 +713,7 @@
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -743,7 +741,7 @@
         <v>140.0</v>
       </c>
       <c r="B21" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C21" s="4">
         <v>1.0</v>
@@ -753,7 +751,7 @@
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -762,7 +760,7 @@
         <v>142.0</v>
       </c>
       <c r="B22" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C22" s="4">
         <v>1.0</v>
@@ -772,7 +770,7 @@
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="23" ht="17.25" customHeight="1">
@@ -798,7 +796,7 @@
         <v>150.0</v>
       </c>
       <c r="B24" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>5</v>
@@ -808,7 +806,7 @@
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1-1</v>
+        <v>0-1</v>
       </c>
     </row>
     <row r="25" ht="17.25" customHeight="1">
@@ -816,7 +814,7 @@
         <v>164.0</v>
       </c>
       <c r="B25" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C25" s="4">
         <v>1.0</v>
@@ -826,7 +824,7 @@
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>011</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" ht="17.25" customHeight="1">
@@ -852,7 +850,7 @@
         <v>166.0</v>
       </c>
       <c r="B27" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C27" s="4">
         <v>0.0</v>
@@ -862,7 +860,7 @@
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" ht="17.25" customHeight="1">
@@ -924,7 +922,7 @@
         <v>173.0</v>
       </c>
       <c r="B31" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C31" s="4">
         <v>0.0</v>
@@ -934,7 +932,7 @@
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" ht="17.25" customHeight="1">
@@ -978,7 +976,7 @@
         <v>183.0</v>
       </c>
       <c r="B34" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C34" s="4">
         <v>0.0</v>
@@ -988,7 +986,7 @@
       </c>
       <c r="E34" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" ht="17.25" customHeight="1">
@@ -996,7 +994,7 @@
         <v>193.0</v>
       </c>
       <c r="B35" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C35" s="4">
         <v>0.0</v>
@@ -1006,7 +1004,7 @@
       </c>
       <c r="E35" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" ht="17.25" customHeight="1">
@@ -1050,7 +1048,7 @@
         <v>208.0</v>
       </c>
       <c r="B38" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C38" s="4">
         <v>1.0</v>
@@ -1060,7 +1058,7 @@
       </c>
       <c r="E38" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="39" ht="17.25" customHeight="1">
@@ -1104,7 +1102,7 @@
         <v>220.0</v>
       </c>
       <c r="B41" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C41" s="4">
         <v>0.0</v>
@@ -1114,7 +1112,7 @@
       </c>
       <c r="E41" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" ht="17.25" customHeight="1">
@@ -1122,7 +1120,7 @@
         <v>221.0</v>
       </c>
       <c r="B42" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C42" s="4">
         <v>1.0</v>
@@ -1132,7 +1130,7 @@
       </c>
       <c r="E42" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="43" ht="17.25" customHeight="1">
@@ -1158,7 +1156,7 @@
         <v>235.0</v>
       </c>
       <c r="B44" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C44" s="4">
         <v>0.0</v>
@@ -1168,7 +1166,7 @@
       </c>
       <c r="E44" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="45" ht="17.25" customHeight="1">
@@ -1194,7 +1192,7 @@
         <v>249.0</v>
       </c>
       <c r="B46" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C46" s="4">
         <v>0.0</v>
@@ -1204,7 +1202,7 @@
       </c>
       <c r="E46" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" ht="17.25" customHeight="1">
@@ -1212,7 +1210,7 @@
         <v>256.0</v>
       </c>
       <c r="B47" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C47" s="4">
         <v>0.0</v>
@@ -1222,7 +1220,7 @@
       </c>
       <c r="E47" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" ht="17.25" customHeight="1">
@@ -1230,7 +1228,7 @@
         <v>261.0</v>
       </c>
       <c r="B48" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C48" s="4">
         <v>0.0</v>
@@ -1240,7 +1238,7 @@
       </c>
       <c r="E48" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="49" ht="17.25" customHeight="1">
@@ -1248,7 +1246,7 @@
         <v>266.0</v>
       </c>
       <c r="B49" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C49" s="4">
         <v>1.0</v>
@@ -1258,7 +1256,7 @@
       </c>
       <c r="E49" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="50" ht="17.25" customHeight="1">
@@ -1284,7 +1282,7 @@
         <v>280.0</v>
       </c>
       <c r="B51" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C51" s="4">
         <v>0.0</v>
@@ -1294,7 +1292,7 @@
       </c>
       <c r="E51" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="52" ht="17.25" customHeight="1">
@@ -1320,7 +1318,7 @@
         <v>295.0</v>
       </c>
       <c r="B53" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C53" s="4">
         <v>0.0</v>
@@ -1330,7 +1328,7 @@
       </c>
       <c r="E53" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" ht="17.25" customHeight="1">
@@ -1356,7 +1354,7 @@
         <v>304.0</v>
       </c>
       <c r="B55" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C55" s="4">
         <v>0.0</v>
@@ -1366,7 +1364,7 @@
       </c>
       <c r="E55" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" ht="17.25" customHeight="1">
@@ -1392,7 +1390,7 @@
         <v>310.0</v>
       </c>
       <c r="B57" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C57" s="4">
         <v>0.0</v>
@@ -1402,7 +1400,7 @@
       </c>
       <c r="E57" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" ht="17.25" customHeight="1">
@@ -1446,7 +1444,7 @@
         <v>346.0</v>
       </c>
       <c r="B60" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C60" s="4">
         <v>1.0</v>
@@ -1456,7 +1454,7 @@
       </c>
       <c r="E60" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="61" ht="17.25" customHeight="1">
@@ -1482,7 +1480,7 @@
         <v>356.0</v>
       </c>
       <c r="B62" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C62" s="4">
         <v>1.0</v>
@@ -1492,7 +1490,7 @@
       </c>
       <c r="E62" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>011</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" ht="17.25" customHeight="1">
@@ -1500,7 +1498,7 @@
         <v>358.0</v>
       </c>
       <c r="B63" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C63" s="4">
         <v>0.0</v>
@@ -1510,7 +1508,7 @@
       </c>
       <c r="E63" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="64" ht="17.25" customHeight="1">
@@ -1590,7 +1588,7 @@
         <v>373.0</v>
       </c>
       <c r="B68" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C68" s="4">
         <v>0.0</v>
@@ -1600,7 +1598,7 @@
       </c>
       <c r="E68" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="69" ht="17.25" customHeight="1">
@@ -1626,7 +1624,7 @@
         <v>382.0</v>
       </c>
       <c r="B70" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C70" s="4">
         <v>1.0</v>
@@ -1636,7 +1634,7 @@
       </c>
       <c r="E70" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" ht="17.25" customHeight="1">
@@ -1644,7 +1642,7 @@
         <v>391.0</v>
       </c>
       <c r="B71" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C71" s="4">
         <v>1.0</v>
@@ -1654,7 +1652,7 @@
       </c>
       <c r="E71" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" ht="17.25" customHeight="1">
@@ -1662,7 +1660,7 @@
         <v>396.0</v>
       </c>
       <c r="B72" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C72" s="4">
         <v>0.0</v>
@@ -1672,7 +1670,7 @@
       </c>
       <c r="E72" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" ht="17.25" customHeight="1">
@@ -1680,7 +1678,7 @@
         <v>397.0</v>
       </c>
       <c r="B73" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C73" s="4">
         <v>1.0</v>
@@ -1690,7 +1688,7 @@
       </c>
       <c r="E73" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="74" ht="17.25" customHeight="1">
@@ -1698,7 +1696,7 @@
         <v>398.0</v>
       </c>
       <c r="B74" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C74" s="4">
         <v>1.0</v>
@@ -1708,7 +1706,7 @@
       </c>
       <c r="E74" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="75" ht="17.25" customHeight="1">
@@ -1734,7 +1732,7 @@
         <v>400.0</v>
       </c>
       <c r="B76" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C76" s="4">
         <v>1.0</v>
@@ -1744,7 +1742,7 @@
       </c>
       <c r="E76" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="77" ht="17.25" customHeight="1">
@@ -1752,7 +1750,7 @@
         <v>401.0</v>
       </c>
       <c r="B77" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C77" s="4">
         <v>1.0</v>
@@ -1762,7 +1760,7 @@
       </c>
       <c r="E77" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" ht="17.25" customHeight="1">
@@ -1770,7 +1768,7 @@
         <v>402.0</v>
       </c>
       <c r="B78" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C78" s="4">
         <v>0.0</v>
@@ -1780,7 +1778,7 @@
       </c>
       <c r="E78" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" ht="17.25" customHeight="1">
@@ -1788,7 +1786,7 @@
         <v>414.0</v>
       </c>
       <c r="B79" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C79" s="4">
         <v>0.0</v>
@@ -1798,7 +1796,7 @@
       </c>
       <c r="E79" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="80" ht="17.25" customHeight="1">
@@ -1806,7 +1804,7 @@
         <v>415.0</v>
       </c>
       <c r="B80" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C80" s="4">
         <v>1.0</v>
@@ -1816,7 +1814,7 @@
       </c>
       <c r="E80" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="81" ht="17.25" customHeight="1">
@@ -1842,7 +1840,7 @@
         <v>417.0</v>
       </c>
       <c r="B82" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C82" s="4">
         <v>0.0</v>
@@ -1852,7 +1850,7 @@
       </c>
       <c r="E82" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="83" ht="17.25" customHeight="1">
@@ -1860,7 +1858,7 @@
         <v>428.0</v>
       </c>
       <c r="B83" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>5</v>
@@ -1870,7 +1868,7 @@
       </c>
       <c r="E83" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1-0</v>
+        <v>0-0</v>
       </c>
     </row>
     <row r="84" ht="17.25" customHeight="1">
@@ -1950,7 +1948,7 @@
         <v>444.0</v>
       </c>
       <c r="B88" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C88" s="4">
         <v>0.0</v>
@@ -1960,7 +1958,7 @@
       </c>
       <c r="E88" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="89" ht="17.25" customHeight="1">
@@ -1986,7 +1984,7 @@
         <v>459.0</v>
       </c>
       <c r="B90" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C90" s="4">
         <v>1.0</v>
@@ -1996,7 +1994,7 @@
       </c>
       <c r="E90" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>011</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" ht="17.25" customHeight="1">
@@ -2004,7 +2002,7 @@
         <v>460.0</v>
       </c>
       <c r="B91" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C91" s="4">
         <v>1.0</v>
@@ -2014,7 +2012,7 @@
       </c>
       <c r="E91" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="92" ht="17.25" customHeight="1">
@@ -2022,7 +2020,7 @@
         <v>462.0</v>
       </c>
       <c r="B92" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C92" s="4">
         <v>1.0</v>
@@ -2032,7 +2030,7 @@
       </c>
       <c r="E92" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="93" ht="17.25" customHeight="1">
@@ -2040,7 +2038,7 @@
         <v>463.0</v>
       </c>
       <c r="B93" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C93" s="4">
         <v>1.0</v>
@@ -2050,7 +2048,7 @@
       </c>
       <c r="E93" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="94" ht="17.25" customHeight="1">
@@ -2112,7 +2110,7 @@
         <v>476.0</v>
       </c>
       <c r="B97" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>5</v>
@@ -2122,7 +2120,7 @@
       </c>
       <c r="E97" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1-1</v>
+        <v>0-1</v>
       </c>
     </row>
     <row r="98" ht="17.25" customHeight="1">
@@ -2130,7 +2128,7 @@
         <v>477.0</v>
       </c>
       <c r="B98" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C98" s="4">
         <v>1.0</v>
@@ -2140,7 +2138,7 @@
       </c>
       <c r="E98" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="99" ht="17.25" customHeight="1">
@@ -2148,7 +2146,7 @@
         <v>487.0</v>
       </c>
       <c r="B99" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C99" s="4">
         <v>0.0</v>
@@ -2158,7 +2156,7 @@
       </c>
       <c r="E99" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" ht="17.25" customHeight="1">
@@ -2166,7 +2164,7 @@
         <v>488.0</v>
       </c>
       <c r="B100" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C100" s="4">
         <v>0.0</v>
@@ -2176,7 +2174,7 @@
       </c>
       <c r="E100" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="101" ht="17.25" customHeight="1">
@@ -2220,7 +2218,7 @@
         <v>498.0</v>
       </c>
       <c r="B103" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C103" s="4">
         <v>1.0</v>
@@ -2230,7 +2228,7 @@
       </c>
       <c r="E103" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>011</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104" ht="17.25" customHeight="1">
@@ -2238,7 +2236,7 @@
         <v>500.0</v>
       </c>
       <c r="B104" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C104" s="4">
         <v>1.0</v>
@@ -2248,7 +2246,7 @@
       </c>
       <c r="E104" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="105" ht="17.25" customHeight="1">
@@ -2274,7 +2272,7 @@
         <v>513.0</v>
       </c>
       <c r="B106" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C106" s="4">
         <v>1.0</v>
@@ -2284,7 +2282,7 @@
       </c>
       <c r="E106" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="107" ht="17.25" customHeight="1">
@@ -2310,7 +2308,7 @@
         <v>540.0</v>
       </c>
       <c r="B108" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C108" s="4">
         <v>0.0</v>
@@ -2320,7 +2318,7 @@
       </c>
       <c r="E108" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="109" ht="17.25" customHeight="1">
@@ -2328,7 +2326,7 @@
         <v>546.0</v>
       </c>
       <c r="B109" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C109" s="4">
         <v>1.0</v>
@@ -2338,7 +2336,7 @@
       </c>
       <c r="E109" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>011</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" ht="17.25" customHeight="1">
@@ -2346,7 +2344,7 @@
         <v>547.0</v>
       </c>
       <c r="B110" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>5</v>
@@ -2356,7 +2354,7 @@
       </c>
       <c r="E110" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1-1</v>
+        <v>0-1</v>
       </c>
     </row>
     <row r="111" ht="17.25" customHeight="1">
@@ -2400,7 +2398,7 @@
         <v>554.0</v>
       </c>
       <c r="B113" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C113" s="4">
         <v>0.0</v>
@@ -2410,7 +2408,7 @@
       </c>
       <c r="E113" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="114" ht="17.25" customHeight="1">
@@ -2418,7 +2416,7 @@
         <v>560.0</v>
       </c>
       <c r="B114" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C114" s="4">
         <v>0.0</v>
@@ -2428,7 +2426,7 @@
       </c>
       <c r="E114" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="115" ht="17.25" customHeight="1">
@@ -2454,7 +2452,7 @@
         <v>568.0</v>
       </c>
       <c r="B116" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C116" s="4">
         <v>0.0</v>
@@ -2464,7 +2462,7 @@
       </c>
       <c r="E116" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="117" ht="17.25" customHeight="1">
@@ -2490,7 +2488,7 @@
         <v>583.0</v>
       </c>
       <c r="B118" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C118" s="4">
         <v>0.0</v>
@@ -2500,7 +2498,7 @@
       </c>
       <c r="E118" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="119" ht="17.25" customHeight="1">
@@ -2508,7 +2506,7 @@
         <v>585.0</v>
       </c>
       <c r="B119" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C119" s="4">
         <v>1.0</v>
@@ -2518,7 +2516,7 @@
       </c>
       <c r="E119" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="120" ht="17.25" customHeight="1">
@@ -2544,7 +2542,7 @@
         <v>596.0</v>
       </c>
       <c r="B121" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C121" s="4">
         <v>1.0</v>
@@ -2554,7 +2552,7 @@
       </c>
       <c r="E121" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="122" ht="17.25" customHeight="1">
@@ -2616,7 +2614,7 @@
         <v>603.0</v>
       </c>
       <c r="B125" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C125" s="4">
         <v>1.0</v>
@@ -2626,7 +2624,7 @@
       </c>
       <c r="E125" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="126" ht="17.25" customHeight="1">
@@ -2634,7 +2632,7 @@
         <v>614.0</v>
       </c>
       <c r="B126" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C126" s="4">
         <v>1.0</v>
@@ -2644,7 +2642,7 @@
       </c>
       <c r="E126" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="127" ht="17.25" customHeight="1">
@@ -2652,7 +2650,7 @@
         <v>616.0</v>
       </c>
       <c r="B127" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C127" s="4">
         <v>1.0</v>
@@ -2662,7 +2660,7 @@
       </c>
       <c r="E127" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>011</v>
+        <v>111</v>
       </c>
     </row>
     <row r="128" ht="17.25" customHeight="1">
@@ -2742,7 +2740,7 @@
         <v>625.0</v>
       </c>
       <c r="B132" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C132" s="4">
         <v>0.0</v>
@@ -2752,7 +2750,7 @@
       </c>
       <c r="E132" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="133" ht="17.25" customHeight="1">
@@ -2760,7 +2758,7 @@
         <v>636.0</v>
       </c>
       <c r="B133" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C133" s="4">
         <v>0.0</v>
@@ -2770,7 +2768,7 @@
       </c>
       <c r="E133" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="134" ht="17.25" customHeight="1">
@@ -2778,7 +2776,7 @@
         <v>646.0</v>
       </c>
       <c r="B134" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C134" s="4">
         <v>0.0</v>
@@ -2788,7 +2786,7 @@
       </c>
       <c r="E134" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="135" ht="17.25" customHeight="1">
@@ -2814,7 +2812,7 @@
         <v>649.0</v>
       </c>
       <c r="B136" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C136" s="4">
         <v>1.0</v>
@@ -2824,7 +2822,7 @@
       </c>
       <c r="E136" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="137" ht="17.25" customHeight="1">
@@ -2832,7 +2830,7 @@
         <v>652.0</v>
       </c>
       <c r="B137" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C137" s="4">
         <v>1.0</v>
@@ -2842,7 +2840,7 @@
       </c>
       <c r="E137" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="138" ht="17.25" customHeight="1">
@@ -2850,7 +2848,7 @@
         <v>661.0</v>
       </c>
       <c r="B138" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C138" s="4">
         <v>1.0</v>
@@ -2860,7 +2858,7 @@
       </c>
       <c r="E138" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="139" ht="17.25" customHeight="1">
@@ -2886,7 +2884,7 @@
         <v>671.0</v>
       </c>
       <c r="B140" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C140" s="4">
         <v>0.0</v>
@@ -2896,7 +2894,7 @@
       </c>
       <c r="E140" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="141" ht="17.25" customHeight="1">
@@ -2958,7 +2956,7 @@
         <v>676.0</v>
       </c>
       <c r="B144" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C144" s="4">
         <v>0.0</v>
@@ -2968,7 +2966,7 @@
       </c>
       <c r="E144" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="145" ht="17.25" customHeight="1">
@@ -3012,7 +3010,7 @@
         <v>691.0</v>
       </c>
       <c r="B147" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C147" s="4">
         <v>1.0</v>
@@ -3022,7 +3020,7 @@
       </c>
       <c r="E147" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="148" ht="17.25" customHeight="1">
@@ -3030,7 +3028,7 @@
         <v>698.0</v>
       </c>
       <c r="B148" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C148" s="4">
         <v>0.0</v>
@@ -3040,7 +3038,7 @@
       </c>
       <c r="E148" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="149" ht="17.25" customHeight="1">
@@ -3102,7 +3100,7 @@
         <v>742.0</v>
       </c>
       <c r="B152" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C152" s="4">
         <v>0.0</v>
@@ -3112,7 +3110,7 @@
       </c>
       <c r="E152" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="153" ht="17.25" customHeight="1">
@@ -3120,7 +3118,7 @@
         <v>744.0</v>
       </c>
       <c r="B153" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C153" s="4">
         <v>1.0</v>
@@ -3130,7 +3128,7 @@
       </c>
       <c r="E153" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="154" ht="17.25" customHeight="1">
@@ -3156,7 +3154,7 @@
         <v>750.0</v>
       </c>
       <c r="B155" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>5</v>
@@ -3166,7 +3164,7 @@
       </c>
       <c r="E155" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1-0</v>
+        <v>0-0</v>
       </c>
     </row>
     <row r="156" ht="17.25" customHeight="1">
@@ -3192,7 +3190,7 @@
         <v>756.0</v>
       </c>
       <c r="B157" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C157" s="4">
         <v>1.0</v>
@@ -3202,7 +3200,7 @@
       </c>
       <c r="E157" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="158" ht="17.25" customHeight="1">
@@ -3210,7 +3208,7 @@
         <v>762.0</v>
       </c>
       <c r="B158" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C158" s="4">
         <v>1.0</v>
@@ -3220,7 +3218,7 @@
       </c>
       <c r="E158" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="159" ht="17.25" customHeight="1">
@@ -3228,7 +3226,7 @@
         <v>763.0</v>
       </c>
       <c r="B159" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C159" s="4">
         <v>1.0</v>
@@ -3238,7 +3236,7 @@
       </c>
       <c r="E159" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="160" ht="17.25" customHeight="1">
@@ -3246,7 +3244,7 @@
         <v>777.0</v>
       </c>
       <c r="B160" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C160" s="4">
         <v>0.0</v>
@@ -3256,7 +3254,7 @@
       </c>
       <c r="E160" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="161" ht="17.25" customHeight="1">
@@ -3264,7 +3262,7 @@
         <v>781.0</v>
       </c>
       <c r="B161" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C161" s="4">
         <v>0.0</v>
@@ -3274,7 +3272,7 @@
       </c>
       <c r="E161" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="162" ht="17.25" customHeight="1">
@@ -3318,7 +3316,7 @@
         <v>789.0</v>
       </c>
       <c r="B164" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C164" s="4">
         <v>0.0</v>
@@ -3328,7 +3326,7 @@
       </c>
       <c r="E164" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="165" ht="17.25" customHeight="1">
@@ -3390,7 +3388,7 @@
         <v>801.0</v>
       </c>
       <c r="B168" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C168" s="4">
         <v>0.0</v>
@@ -3400,7 +3398,7 @@
       </c>
       <c r="E168" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="169" ht="17.25" customHeight="1">
@@ -3426,7 +3424,7 @@
         <v>817.0</v>
       </c>
       <c r="B170" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C170" s="4">
         <v>1.0</v>
@@ -3436,7 +3434,7 @@
       </c>
       <c r="E170" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>011</v>
+        <v>111</v>
       </c>
     </row>
     <row r="171" ht="17.25" customHeight="1">
@@ -3444,7 +3442,7 @@
         <v>818.0</v>
       </c>
       <c r="B171" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C171" s="4">
         <v>1.0</v>
@@ -3454,7 +3452,7 @@
       </c>
       <c r="E171" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="172" ht="17.25" customHeight="1">
@@ -3462,7 +3460,7 @@
         <v>819.0</v>
       </c>
       <c r="B172" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C172" s="4">
         <v>1.0</v>
@@ -3472,15 +3470,15 @@
       </c>
       <c r="E172" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="173" ht="17.25" customHeight="1">
       <c r="A173" s="3">
         <v>824.0</v>
       </c>
-      <c r="B173" s="5" t="s">
-        <v>5</v>
+      <c r="B173" s="4">
+        <v>1.0</v>
       </c>
       <c r="C173" s="4">
         <v>0.0</v>
@@ -3490,7 +3488,7 @@
       </c>
       <c r="E173" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>-00</v>
+        <v>100</v>
       </c>
     </row>
     <row r="174" ht="17.25" customHeight="1">
@@ -3498,7 +3496,7 @@
         <v>830.0</v>
       </c>
       <c r="B174" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C174" s="4">
         <v>1.0</v>
@@ -3508,7 +3506,7 @@
       </c>
       <c r="E174" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="175" ht="17.25" customHeight="1">
@@ -3534,7 +3532,7 @@
         <v>849.0</v>
       </c>
       <c r="B176" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C176" s="4">
         <v>1.0</v>
@@ -3544,7 +3542,7 @@
       </c>
       <c r="E176" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="177" ht="17.25" customHeight="1">
@@ -3570,7 +3568,7 @@
         <v>868.0</v>
       </c>
       <c r="B178" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C178" s="4">
         <v>0.0</v>
@@ -3580,7 +3578,7 @@
       </c>
       <c r="E178" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="179" ht="17.25" customHeight="1">
@@ -3624,7 +3622,7 @@
         <v>881.0</v>
       </c>
       <c r="B181" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C181" s="4">
         <v>1.0</v>
@@ -3634,7 +3632,7 @@
       </c>
       <c r="E181" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="182" ht="17.25" customHeight="1">
@@ -3660,7 +3658,7 @@
         <v>885.0</v>
       </c>
       <c r="B183" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C183" s="4">
         <v>1.0</v>
@@ -3670,7 +3668,7 @@
       </c>
       <c r="E183" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>011</v>
+        <v>111</v>
       </c>
     </row>
     <row r="184" ht="17.25" customHeight="1">
@@ -3768,7 +3766,7 @@
         <v>925.0</v>
       </c>
       <c r="B189" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C189" s="4">
         <v>1.0</v>
@@ -3778,7 +3776,7 @@
       </c>
       <c r="E189" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="190" ht="17.25" customHeight="1">
@@ -3822,7 +3820,7 @@
         <v>950.0</v>
       </c>
       <c r="B192" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C192" s="4">
         <v>1.0</v>
@@ -3832,7 +3830,7 @@
       </c>
       <c r="E192" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="193" ht="17.25" customHeight="1">
@@ -3876,7 +3874,7 @@
         <v>962.0</v>
       </c>
       <c r="B195" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C195" s="4">
         <v>1.0</v>
@@ -3886,7 +3884,7 @@
       </c>
       <c r="E195" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="196" ht="17.25" customHeight="1">
@@ -3894,7 +3892,7 @@
         <v>963.0</v>
       </c>
       <c r="B196" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C196" s="4">
         <v>1.0</v>
@@ -3904,7 +3902,7 @@
       </c>
       <c r="E196" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="197" ht="17.25" customHeight="1">
@@ -3912,7 +3910,7 @@
         <v>965.0</v>
       </c>
       <c r="B197" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C197" s="4">
         <v>1.0</v>
@@ -3922,7 +3920,7 @@
       </c>
       <c r="E197" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>011</v>
+        <v>111</v>
       </c>
     </row>
     <row r="198" ht="17.25" customHeight="1">
@@ -3984,7 +3982,7 @@
         <v>989.0</v>
       </c>
       <c r="B201" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C201" s="4">
         <v>1.0</v>
@@ -3994,7 +3992,7 @@
       </c>
       <c r="E201" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="202" ht="17.25" customHeight="1">
@@ -4020,7 +4018,7 @@
         <v>993.0</v>
       </c>
       <c r="B203" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C203" s="4">
         <v>0.0</v>
@@ -4030,7 +4028,7 @@
       </c>
       <c r="E203" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="204" ht="17.25" customHeight="1">
@@ -4038,7 +4036,7 @@
         <v>1005.0</v>
       </c>
       <c r="B204" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C204" s="4">
         <v>1.0</v>
@@ -4048,7 +4046,7 @@
       </c>
       <c r="E204" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="205" ht="17.25" customHeight="1">
@@ -4056,7 +4054,7 @@
         <v>1013.0</v>
       </c>
       <c r="B205" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C205" s="4">
         <v>1.0</v>
@@ -4066,7 +4064,7 @@
       </c>
       <c r="E205" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="206" ht="17.25" customHeight="1">
@@ -4164,7 +4162,7 @@
         <v>1040.0</v>
       </c>
       <c r="B211" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C211" s="4">
         <v>0.0</v>
@@ -4174,7 +4172,7 @@
       </c>
       <c r="E211" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="212" ht="17.25" customHeight="1">
@@ -4200,7 +4198,7 @@
         <v>1047.0</v>
       </c>
       <c r="B213" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C213" s="4">
         <v>0.0</v>
@@ -4210,7 +4208,7 @@
       </c>
       <c r="E213" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="214" ht="17.25" customHeight="1">
@@ -4218,7 +4216,7 @@
         <v>1049.0</v>
       </c>
       <c r="B214" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>5</v>
@@ -4228,7 +4226,7 @@
       </c>
       <c r="E214" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1-0</v>
+        <v>0-0</v>
       </c>
     </row>
     <row r="215" ht="17.25" customHeight="1">
@@ -4236,7 +4234,7 @@
         <v>1050.0</v>
       </c>
       <c r="B215" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C215" s="4">
         <v>0.0</v>
@@ -4246,7 +4244,7 @@
       </c>
       <c r="E215" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="216" ht="17.25" customHeight="1">
@@ -4290,7 +4288,7 @@
         <v>1063.0</v>
       </c>
       <c r="B218" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C218" s="4">
         <v>0.0</v>
@@ -4300,7 +4298,7 @@
       </c>
       <c r="E218" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="219" ht="17.25" customHeight="1">
@@ -4308,7 +4306,7 @@
         <v>1068.0</v>
       </c>
       <c r="B219" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C219" s="4">
         <v>1.0</v>
@@ -4318,7 +4316,7 @@
       </c>
       <c r="E219" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="220" ht="17.25" customHeight="1">
@@ -4344,7 +4342,7 @@
         <v>1075.0</v>
       </c>
       <c r="B221" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C221" s="4">
         <v>1.0</v>
@@ -4354,7 +4352,7 @@
       </c>
       <c r="E221" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="222" ht="17.25" customHeight="1">
@@ -4398,7 +4396,7 @@
         <v>1083.0</v>
       </c>
       <c r="B224" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C224" s="4">
         <v>1.0</v>
@@ -4408,7 +4406,7 @@
       </c>
       <c r="E224" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="225" ht="17.25" customHeight="1">
@@ -4434,7 +4432,7 @@
         <v>1087.0</v>
       </c>
       <c r="B226" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C226" s="4">
         <v>1.0</v>
@@ -4444,7 +4442,7 @@
       </c>
       <c r="E226" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="227" ht="17.25" customHeight="1">
@@ -4452,7 +4450,7 @@
         <v>1089.0</v>
       </c>
       <c r="B227" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C227" s="4">
         <v>0.0</v>
@@ -4462,7 +4460,7 @@
       </c>
       <c r="E227" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="228" ht="17.25" customHeight="1">
@@ -4488,7 +4486,7 @@
         <v>1093.0</v>
       </c>
       <c r="B229" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C229" s="4">
         <v>1.0</v>
@@ -4498,7 +4496,7 @@
       </c>
       <c r="E229" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="230" ht="17.25" customHeight="1">
@@ -4506,7 +4504,7 @@
         <v>1100.0</v>
       </c>
       <c r="B230" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C230" s="4">
         <v>0.0</v>
@@ -4516,7 +4514,7 @@
       </c>
       <c r="E230" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="231" ht="17.25" customHeight="1">
@@ -4578,7 +4576,7 @@
         <v>1121.0</v>
       </c>
       <c r="B234" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C234" s="4">
         <v>1.0</v>
@@ -4588,7 +4586,7 @@
       </c>
       <c r="E234" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="235" ht="17.25" customHeight="1">
@@ -4596,7 +4594,7 @@
         <v>1126.0</v>
       </c>
       <c r="B235" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C235" s="4">
         <v>1.0</v>
@@ -4606,7 +4604,7 @@
       </c>
       <c r="E235" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="236" ht="17.25" customHeight="1">
@@ -4650,7 +4648,7 @@
         <v>1144.0</v>
       </c>
       <c r="B238" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C238" s="4">
         <v>0.0</v>
@@ -4660,7 +4658,7 @@
       </c>
       <c r="E238" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="239" ht="17.25" customHeight="1">
@@ -4668,7 +4666,7 @@
         <v>1145.0</v>
       </c>
       <c r="B239" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C239" s="4">
         <v>0.0</v>
@@ -4678,7 +4676,7 @@
       </c>
       <c r="E239" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="240" ht="17.25" customHeight="1">
@@ -4686,7 +4684,7 @@
         <v>1150.0</v>
       </c>
       <c r="B240" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C240" s="4">
         <v>0.0</v>
@@ -4696,7 +4694,7 @@
       </c>
       <c r="E240" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="241" ht="17.25" customHeight="1">
@@ -4812,7 +4810,7 @@
         <v>1226.0</v>
       </c>
       <c r="B247" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C247" s="4">
         <v>0.0</v>
@@ -4822,7 +4820,7 @@
       </c>
       <c r="E247" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="248" ht="17.25" customHeight="1">
@@ -4866,7 +4864,7 @@
         <v>1245.0</v>
       </c>
       <c r="B250" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C250" s="4">
         <v>0.0</v>
@@ -4876,7 +4874,7 @@
       </c>
       <c r="E250" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="251" ht="17.25" customHeight="1">
@@ -4902,7 +4900,7 @@
         <v>1251.0</v>
       </c>
       <c r="B252" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C252" s="4">
         <v>0.0</v>
@@ -4912,7 +4910,7 @@
       </c>
       <c r="E252" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="253" ht="17.25" customHeight="1">
@@ -4920,7 +4918,7 @@
         <v>1252.0</v>
       </c>
       <c r="B253" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C253" s="4">
         <v>0.0</v>
@@ -4930,7 +4928,7 @@
       </c>
       <c r="E253" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="254" ht="17.25" customHeight="1">
@@ -5010,7 +5008,7 @@
         <v>1279.0</v>
       </c>
       <c r="B258" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C258" s="4">
         <v>0.0</v>
@@ -5020,7 +5018,7 @@
       </c>
       <c r="E258" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="259" ht="17.25" customHeight="1">
@@ -5064,7 +5062,7 @@
         <v>1288.0</v>
       </c>
       <c r="B261" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C261" s="4">
         <v>1.0</v>
@@ -5074,7 +5072,7 @@
       </c>
       <c r="E261" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="262" ht="17.25" customHeight="1">
@@ -5100,7 +5098,7 @@
         <v>1291.0</v>
       </c>
       <c r="B263" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C263" s="4">
         <v>0.0</v>
@@ -5110,7 +5108,7 @@
       </c>
       <c r="E263" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="264" ht="17.25" customHeight="1">
@@ -5136,7 +5134,7 @@
         <v>1293.0</v>
       </c>
       <c r="B265" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C265" s="4">
         <v>1.0</v>
@@ -5146,7 +5144,7 @@
       </c>
       <c r="E265" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>011</v>
+        <v>111</v>
       </c>
     </row>
     <row r="266" ht="17.25" customHeight="1">
@@ -5154,7 +5152,7 @@
         <v>1295.0</v>
       </c>
       <c r="B266" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C266" s="4">
         <v>0.0</v>
@@ -5164,7 +5162,7 @@
       </c>
       <c r="E266" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="267" ht="17.25" customHeight="1">
@@ -5172,7 +5170,7 @@
         <v>1302.0</v>
       </c>
       <c r="B267" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C267" s="4">
         <v>0.0</v>
@@ -5182,7 +5180,7 @@
       </c>
       <c r="E267" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="268" ht="17.25" customHeight="1">
@@ -5190,7 +5188,7 @@
         <v>1316.0</v>
       </c>
       <c r="B268" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C268" s="4">
         <v>1.0</v>
@@ -5200,7 +5198,7 @@
       </c>
       <c r="E268" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="269" ht="17.25" customHeight="1">
@@ -5244,7 +5242,7 @@
         <v>1322.0</v>
       </c>
       <c r="B271" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C271" s="4">
         <v>0.0</v>
@@ -5254,7 +5252,7 @@
       </c>
       <c r="E271" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="272" ht="17.25" customHeight="1">
@@ -5298,7 +5296,7 @@
         <v>1346.0</v>
       </c>
       <c r="B274" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C274" s="4">
         <v>0.0</v>
@@ -5308,7 +5306,7 @@
       </c>
       <c r="E274" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="275" ht="17.25" customHeight="1">
@@ -5352,7 +5350,7 @@
         <v>1365.0</v>
       </c>
       <c r="B277" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C277" s="4">
         <v>0.0</v>
@@ -5362,7 +5360,7 @@
       </c>
       <c r="E277" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="278" ht="17.25" customHeight="1">
@@ -5370,7 +5368,7 @@
         <v>1371.0</v>
       </c>
       <c r="B278" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C278" s="4">
         <v>0.0</v>
@@ -5380,7 +5378,7 @@
       </c>
       <c r="E278" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="279" ht="17.25" customHeight="1">
@@ -5388,7 +5386,7 @@
         <v>1373.0</v>
       </c>
       <c r="B279" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C279" s="4">
         <v>0.0</v>
@@ -5398,7 +5396,7 @@
       </c>
       <c r="E279" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="280" ht="17.25" customHeight="1">
@@ -5424,7 +5422,7 @@
         <v>1401.0</v>
       </c>
       <c r="B281" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C281" s="4">
         <v>1.0</v>
@@ -5434,7 +5432,7 @@
       </c>
       <c r="E281" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="282" ht="17.25" customHeight="1">
@@ -5459,8 +5457,8 @@
       <c r="A283" s="3">
         <v>1404.0</v>
       </c>
-      <c r="B283" s="5" t="s">
-        <v>5</v>
+      <c r="B283" s="4">
+        <v>0.0</v>
       </c>
       <c r="C283" s="4">
         <v>1.0</v>
@@ -5470,7 +5468,7 @@
       </c>
       <c r="E283" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>-10</v>
+        <v>010</v>
       </c>
     </row>
     <row r="284" ht="17.25" customHeight="1">
@@ -5478,7 +5476,7 @@
         <v>1410.0</v>
       </c>
       <c r="B284" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C284" s="4">
         <v>1.0</v>
@@ -5488,7 +5486,7 @@
       </c>
       <c r="E284" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="285" ht="17.25" customHeight="1">
@@ -5496,7 +5494,7 @@
         <v>1417.0</v>
       </c>
       <c r="B285" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C285" s="4">
         <v>1.0</v>
@@ -5506,7 +5504,7 @@
       </c>
       <c r="E285" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="286" ht="17.25" customHeight="1">
@@ -5532,7 +5530,7 @@
         <v>1429.0</v>
       </c>
       <c r="B287" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C287" s="4">
         <v>0.0</v>
@@ -5542,7 +5540,7 @@
       </c>
       <c r="E287" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="288" ht="17.25" customHeight="1">
@@ -5568,7 +5566,7 @@
         <v>1450.0</v>
       </c>
       <c r="B289" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C289" s="4">
         <v>0.0</v>
@@ -5578,7 +5576,7 @@
       </c>
       <c r="E289" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="290" ht="17.25" customHeight="1">
@@ -5640,7 +5638,7 @@
         <v>1483.0</v>
       </c>
       <c r="B293" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C293" s="4">
         <v>0.0</v>
@@ -5650,7 +5648,7 @@
       </c>
       <c r="E293" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="294" ht="17.25" customHeight="1">
@@ -5676,7 +5674,7 @@
         <v>1493.0</v>
       </c>
       <c r="B295" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C295" s="4">
         <v>0.0</v>
@@ -5686,7 +5684,7 @@
       </c>
       <c r="E295" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="296" ht="17.25" customHeight="1">
@@ -5694,7 +5692,7 @@
         <v>1494.0</v>
       </c>
       <c r="B296" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C296" s="4">
         <v>0.0</v>
@@ -5704,7 +5702,7 @@
       </c>
       <c r="E296" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="297" ht="17.25" customHeight="1">
@@ -5712,7 +5710,7 @@
         <v>1495.0</v>
       </c>
       <c r="B297" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C297" s="4">
         <v>0.0</v>
@@ -5722,7 +5720,7 @@
       </c>
       <c r="E297" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="298" ht="17.25" customHeight="1">
@@ -5730,7 +5728,7 @@
         <v>1505.0</v>
       </c>
       <c r="B298" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C298" s="4">
         <v>0.0</v>
@@ -5740,7 +5738,7 @@
       </c>
       <c r="E298" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="299" ht="17.25" customHeight="1">
@@ -5748,7 +5746,7 @@
         <v>1506.0</v>
       </c>
       <c r="B299" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C299" s="4">
         <v>0.0</v>
@@ -5758,7 +5756,7 @@
       </c>
       <c r="E299" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="300" ht="17.25" customHeight="1">
@@ -5766,7 +5764,7 @@
         <v>1508.0</v>
       </c>
       <c r="B300" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C300" s="4">
         <v>0.0</v>
@@ -5776,7 +5774,7 @@
       </c>
       <c r="E300" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="301" ht="17.25" customHeight="1">
@@ -5784,7 +5782,7 @@
         <v>1520.0</v>
       </c>
       <c r="B301" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C301" s="4">
         <v>1.0</v>
@@ -5794,7 +5792,7 @@
       </c>
       <c r="E301" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="302" ht="17.25" customHeight="1">
@@ -5820,7 +5818,7 @@
         <v>1534.0</v>
       </c>
       <c r="B303" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C303" s="4">
         <v>0.0</v>
@@ -5830,7 +5828,7 @@
       </c>
       <c r="E303" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="304" ht="17.25" customHeight="1">
@@ -5856,7 +5854,7 @@
         <v>1558.0</v>
       </c>
       <c r="B305" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C305" s="4">
         <v>0.0</v>
@@ -5866,7 +5864,7 @@
       </c>
       <c r="E305" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="306" ht="17.25" customHeight="1">
@@ -5874,7 +5872,7 @@
         <v>1564.0</v>
       </c>
       <c r="B306" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C306" s="4">
         <v>0.0</v>
@@ -5884,7 +5882,7 @@
       </c>
       <c r="E306" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="307" ht="17.25" customHeight="1">
@@ -5928,7 +5926,7 @@
         <v>1572.0</v>
       </c>
       <c r="B309" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C309" s="4">
         <v>1.0</v>
@@ -5938,7 +5936,7 @@
       </c>
       <c r="E309" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="310" ht="17.25" customHeight="1">
@@ -5964,7 +5962,7 @@
         <v>1597.0</v>
       </c>
       <c r="B311" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C311" s="4">
         <v>1.0</v>
@@ -5974,7 +5972,7 @@
       </c>
       <c r="E311" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="312" ht="17.25" customHeight="1">
@@ -6000,7 +5998,7 @@
         <v>1622.0</v>
       </c>
       <c r="B313" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C313" s="4">
         <v>1.0</v>
@@ -6010,7 +6008,7 @@
       </c>
       <c r="E313" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="314" ht="17.25" customHeight="1">
@@ -6054,7 +6052,7 @@
         <v>1646.0</v>
       </c>
       <c r="B316" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C316" s="4">
         <v>1.0</v>
@@ -6064,7 +6062,7 @@
       </c>
       <c r="E316" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="317" ht="17.25" customHeight="1">
@@ -6072,7 +6070,7 @@
         <v>1647.0</v>
       </c>
       <c r="B317" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C317" s="4">
         <v>1.0</v>
@@ -6082,7 +6080,7 @@
       </c>
       <c r="E317" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="318" ht="17.25" customHeight="1">
@@ -6108,7 +6106,7 @@
         <v>1666.0</v>
       </c>
       <c r="B319" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C319" s="4">
         <v>0.0</v>
@@ -6118,7 +6116,7 @@
       </c>
       <c r="E319" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="320" ht="17.25" customHeight="1">
@@ -6126,7 +6124,7 @@
         <v>1667.0</v>
       </c>
       <c r="B320" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C320" s="4">
         <v>0.0</v>
@@ -6136,7 +6134,7 @@
       </c>
       <c r="E320" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="321" ht="17.25" customHeight="1">
@@ -6144,7 +6142,7 @@
         <v>1668.0</v>
       </c>
       <c r="B321" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C321" s="4">
         <v>0.0</v>
@@ -6154,7 +6152,7 @@
       </c>
       <c r="E321" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="322" ht="17.25" customHeight="1">
@@ -6179,8 +6177,8 @@
       <c r="A323" s="3">
         <v>1683.0</v>
       </c>
-      <c r="B323" s="5" t="s">
-        <v>5</v>
+      <c r="B323" s="4">
+        <v>1.0</v>
       </c>
       <c r="C323" s="4">
         <v>0.0</v>
@@ -6190,7 +6188,7 @@
       </c>
       <c r="E323" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>-01</v>
+        <v>101</v>
       </c>
     </row>
     <row r="324" ht="17.25" customHeight="1">
@@ -6198,7 +6196,7 @@
         <v>1685.0</v>
       </c>
       <c r="B324" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C324" s="4">
         <v>0.0</v>
@@ -6208,7 +6206,7 @@
       </c>
       <c r="E324" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="325" ht="17.25" customHeight="1">
@@ -6252,7 +6250,7 @@
         <v>1704.0</v>
       </c>
       <c r="B327" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C327" s="4">
         <v>0.0</v>
@@ -6262,7 +6260,7 @@
       </c>
       <c r="E327" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="328" ht="17.25" customHeight="1">
@@ -6306,7 +6304,7 @@
         <v>1708.0</v>
       </c>
       <c r="B330" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C330" s="4">
         <v>0.0</v>
@@ -6316,7 +6314,7 @@
       </c>
       <c r="E330" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="331" ht="17.25" customHeight="1">
@@ -6324,7 +6322,7 @@
         <v>1710.0</v>
       </c>
       <c r="B331" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C331" s="4">
         <v>0.0</v>
@@ -6334,7 +6332,7 @@
       </c>
       <c r="E331" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="332" ht="17.25" customHeight="1">
@@ -6342,7 +6340,7 @@
         <v>1711.0</v>
       </c>
       <c r="B332" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C332" s="4">
         <v>1.0</v>
@@ -6352,7 +6350,7 @@
       </c>
       <c r="E332" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="333" ht="17.25" customHeight="1">
@@ -6378,7 +6376,7 @@
         <v>1726.0</v>
       </c>
       <c r="B334" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C334" s="4">
         <v>0.0</v>
@@ -6388,7 +6386,7 @@
       </c>
       <c r="E334" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="335" ht="17.25" customHeight="1">
@@ -6396,7 +6394,7 @@
         <v>1734.0</v>
       </c>
       <c r="B335" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C335" s="4">
         <v>0.0</v>
@@ -6406,7 +6404,7 @@
       </c>
       <c r="E335" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="336" ht="17.25" customHeight="1">
@@ -6414,7 +6412,7 @@
         <v>1736.0</v>
       </c>
       <c r="B336" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C336" s="4">
         <v>0.0</v>
@@ -6424,7 +6422,7 @@
       </c>
       <c r="E336" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="337" ht="17.25" customHeight="1">
@@ -6504,7 +6502,7 @@
         <v>1759.0</v>
       </c>
       <c r="B341" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C341" s="4">
         <v>0.0</v>
@@ -6514,7 +6512,7 @@
       </c>
       <c r="E341" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="342" ht="17.25" customHeight="1">
@@ -6648,7 +6646,7 @@
         <v>1795.0</v>
       </c>
       <c r="B349" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C349" s="4">
         <v>1.0</v>
@@ -6658,7 +6656,7 @@
       </c>
       <c r="E349" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="350" ht="17.25" customHeight="1">
@@ -6684,7 +6682,7 @@
         <v>1809.0</v>
       </c>
       <c r="B351" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C351" s="4">
         <v>1.0</v>
@@ -6694,7 +6692,7 @@
       </c>
       <c r="E351" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="352" ht="17.25" customHeight="1">
@@ -6702,7 +6700,7 @@
         <v>1830.0</v>
       </c>
       <c r="B352" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C352" s="4">
         <v>1.0</v>
@@ -6712,7 +6710,7 @@
       </c>
       <c r="E352" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="353" ht="17.25" customHeight="1">
@@ -6720,7 +6718,7 @@
         <v>1839.0</v>
       </c>
       <c r="B353" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C353" s="4">
         <v>0.0</v>
@@ -6730,7 +6728,7 @@
       </c>
       <c r="E353" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="354" ht="17.25" customHeight="1">
@@ -6738,7 +6736,7 @@
         <v>1866.0</v>
       </c>
       <c r="B354" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C354" s="4">
         <v>0.0</v>
@@ -6748,7 +6746,7 @@
       </c>
       <c r="E354" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="355" ht="17.25" customHeight="1">
@@ -6756,7 +6754,7 @@
         <v>1867.0</v>
       </c>
       <c r="B355" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C355" s="4">
         <v>0.0</v>
@@ -6766,7 +6764,7 @@
       </c>
       <c r="E355" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="356" ht="17.25" customHeight="1">
@@ -6809,8 +6807,8 @@
       <c r="A358" s="3">
         <v>1874.0</v>
       </c>
-      <c r="B358" s="5" t="s">
-        <v>5</v>
+      <c r="B358" s="4">
+        <v>1.0</v>
       </c>
       <c r="C358" s="4">
         <v>0.0</v>
@@ -6820,7 +6818,7 @@
       </c>
       <c r="E358" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>-01</v>
+        <v>101</v>
       </c>
     </row>
     <row r="359" ht="17.25" customHeight="1">
@@ -6828,7 +6826,7 @@
         <v>1883.0</v>
       </c>
       <c r="B359" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C359" s="4">
         <v>0.0</v>
@@ -6838,7 +6836,7 @@
       </c>
       <c r="E359" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="360" ht="17.25" customHeight="1">
@@ -6846,7 +6844,7 @@
         <v>1897.0</v>
       </c>
       <c r="B360" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C360" s="4">
         <v>0.0</v>
@@ -6856,7 +6854,7 @@
       </c>
       <c r="E360" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="361" ht="17.25" customHeight="1">
@@ -6864,7 +6862,7 @@
         <v>1898.0</v>
       </c>
       <c r="B361" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C361" s="4">
         <v>0.0</v>
@@ -6874,7 +6872,7 @@
       </c>
       <c r="E361" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="362" ht="17.25" customHeight="1">
@@ -6882,7 +6880,7 @@
         <v>1899.0</v>
       </c>
       <c r="B362" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C362" s="4">
         <v>0.0</v>
@@ -6892,7 +6890,7 @@
       </c>
       <c r="E362" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="363" ht="17.25" customHeight="1">
@@ -6936,7 +6934,7 @@
         <v>1909.0</v>
       </c>
       <c r="B365" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C365" s="4">
         <v>0.0</v>
@@ -6946,7 +6944,7 @@
       </c>
       <c r="E365" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="366" ht="17.25" customHeight="1">
@@ -6972,7 +6970,7 @@
         <v>1921.0</v>
       </c>
       <c r="B367" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C367" s="4">
         <v>0.0</v>
@@ -6982,7 +6980,7 @@
       </c>
       <c r="E367" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="368" ht="17.25" customHeight="1">
@@ -6990,7 +6988,7 @@
         <v>1922.0</v>
       </c>
       <c r="B368" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C368" s="4">
         <v>1.0</v>
@@ -7000,7 +6998,7 @@
       </c>
       <c r="E368" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="369" ht="17.25" customHeight="1">
@@ -7206,7 +7204,7 @@
         <v>1969.0</v>
       </c>
       <c r="B380" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C380" s="4">
         <v>0.0</v>
@@ -7216,7 +7214,7 @@
       </c>
       <c r="E380" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="381" ht="17.25" customHeight="1">
@@ -7224,7 +7222,7 @@
         <v>1981.0</v>
       </c>
       <c r="B381" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C381" s="4">
         <v>1.0</v>
@@ -7234,7 +7232,7 @@
       </c>
       <c r="E381" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="382" ht="17.25" customHeight="1">
@@ -7260,7 +7258,7 @@
         <v>1987.0</v>
       </c>
       <c r="B383" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C383" s="4">
         <v>1.0</v>
@@ -7270,7 +7268,7 @@
       </c>
       <c r="E383" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="384" ht="17.25" customHeight="1">
@@ -7278,7 +7276,7 @@
         <v>1991.0</v>
       </c>
       <c r="B384" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C384" s="4">
         <v>0.0</v>
@@ -7288,7 +7286,7 @@
       </c>
       <c r="E384" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="385" ht="17.25" customHeight="1">
@@ -7296,7 +7294,7 @@
         <v>1994.0</v>
       </c>
       <c r="B385" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C385" s="4">
         <v>0.0</v>
@@ -7306,7 +7304,7 @@
       </c>
       <c r="E385" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="386" ht="17.25" customHeight="1">
@@ -7332,7 +7330,7 @@
         <v>2005.0</v>
       </c>
       <c r="B387" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C387" s="4">
         <v>0.0</v>
@@ -7342,7 +7340,7 @@
       </c>
       <c r="E387" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="388" ht="17.25" customHeight="1">
@@ -7350,7 +7348,7 @@
         <v>2011.0</v>
       </c>
       <c r="B388" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C388" s="4">
         <v>0.0</v>
@@ -7360,7 +7358,7 @@
       </c>
       <c r="E388" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="389" ht="17.25" customHeight="1">
@@ -7386,7 +7384,7 @@
         <v>2017.0</v>
       </c>
       <c r="B390" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C390" s="4">
         <v>1.0</v>
@@ -7396,7 +7394,7 @@
       </c>
       <c r="E390" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="391" ht="17.25" customHeight="1">
@@ -7440,7 +7438,7 @@
         <v>2039.0</v>
       </c>
       <c r="B393" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C393" s="4">
         <v>0.0</v>
@@ -7450,7 +7448,7 @@
       </c>
       <c r="E393" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="394" ht="17.25" customHeight="1">
@@ -7530,7 +7528,7 @@
         <v>2068.0</v>
       </c>
       <c r="B398" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C398" s="4">
         <v>0.0</v>
@@ -7540,7 +7538,7 @@
       </c>
       <c r="E398" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="399" ht="17.25" customHeight="1">
@@ -7710,7 +7708,7 @@
         <v>2101.0</v>
       </c>
       <c r="B408" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C408" s="4">
         <v>1.0</v>
@@ -7720,7 +7718,7 @@
       </c>
       <c r="E408" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>011</v>
+        <v>111</v>
       </c>
     </row>
     <row r="409" ht="17.25" customHeight="1">
@@ -7782,7 +7780,7 @@
         <v>2125.0</v>
       </c>
       <c r="B412" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C412" s="4">
         <v>1.0</v>
@@ -7792,7 +7790,7 @@
       </c>
       <c r="E412" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="413" ht="17.25" customHeight="1">
@@ -7800,7 +7798,7 @@
         <v>2131.0</v>
       </c>
       <c r="B413" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C413" s="4">
         <v>0.0</v>
@@ -7810,15 +7808,15 @@
       </c>
       <c r="E413" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="414" ht="17.25" customHeight="1">
       <c r="A414" s="3">
         <v>2136.0</v>
       </c>
-      <c r="B414" s="5" t="s">
-        <v>5</v>
+      <c r="B414" s="4">
+        <v>1.0</v>
       </c>
       <c r="C414" s="4">
         <v>0.0</v>
@@ -7828,7 +7826,7 @@
       </c>
       <c r="E414" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>-00</v>
+        <v>100</v>
       </c>
     </row>
     <row r="415" ht="17.25" customHeight="1">
@@ -7836,7 +7834,7 @@
         <v>2145.0</v>
       </c>
       <c r="B415" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C415" s="4">
         <v>0.0</v>
@@ -7846,7 +7844,7 @@
       </c>
       <c r="E415" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="416" ht="17.25" customHeight="1">
@@ -7944,7 +7942,7 @@
         <v>2176.0</v>
       </c>
       <c r="B421" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C421" s="4">
         <v>1.0</v>
@@ -7954,7 +7952,7 @@
       </c>
       <c r="E421" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="422" ht="17.25" customHeight="1">
@@ -7962,7 +7960,7 @@
         <v>2177.0</v>
       </c>
       <c r="B422" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C422" s="4">
         <v>0.0</v>
@@ -7972,7 +7970,7 @@
       </c>
       <c r="E422" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="423" ht="17.25" customHeight="1">
@@ -7980,7 +7978,7 @@
         <v>2179.0</v>
       </c>
       <c r="B423" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C423" s="4">
         <v>0.0</v>
@@ -7990,7 +7988,7 @@
       </c>
       <c r="E423" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="424" ht="17.25" customHeight="1">
@@ -8016,7 +8014,7 @@
         <v>2189.0</v>
       </c>
       <c r="B425" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C425" s="4">
         <v>0.0</v>
@@ -8026,7 +8024,7 @@
       </c>
       <c r="E425" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="426" ht="17.25" customHeight="1">
@@ -8034,7 +8032,7 @@
         <v>2192.0</v>
       </c>
       <c r="B426" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C426" s="4">
         <v>0.0</v>
@@ -8044,7 +8042,7 @@
       </c>
       <c r="E426" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="427" ht="17.25" customHeight="1">
@@ -8052,7 +8050,7 @@
         <v>2193.0</v>
       </c>
       <c r="B427" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C427" s="4">
         <v>0.0</v>
@@ -8062,7 +8060,7 @@
       </c>
       <c r="E427" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="428" ht="17.25" customHeight="1">
@@ -8070,7 +8068,7 @@
         <v>2203.0</v>
       </c>
       <c r="B428" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C428" s="4">
         <v>0.0</v>
@@ -8080,7 +8078,7 @@
       </c>
       <c r="E428" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="429" ht="17.25" customHeight="1">
@@ -8142,7 +8140,7 @@
         <v>2218.0</v>
       </c>
       <c r="B432" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C432" s="4">
         <v>0.0</v>
@@ -8152,7 +8150,7 @@
       </c>
       <c r="E432" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="433" ht="17.25" customHeight="1">
@@ -8196,7 +8194,7 @@
         <v>2225.0</v>
       </c>
       <c r="B435" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C435" s="4">
         <v>0.0</v>
@@ -8206,7 +8204,7 @@
       </c>
       <c r="E435" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="436" ht="17.25" customHeight="1">
@@ -8214,7 +8212,7 @@
         <v>2227.0</v>
       </c>
       <c r="B436" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C436" s="4">
         <v>0.0</v>
@@ -8224,7 +8222,7 @@
       </c>
       <c r="E436" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="437" ht="17.25" customHeight="1">
@@ -8268,7 +8266,7 @@
         <v>2231.0</v>
       </c>
       <c r="B439" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C439" s="4">
         <v>0.0</v>
@@ -8278,7 +8276,7 @@
       </c>
       <c r="E439" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="440" ht="17.25" customHeight="1">
@@ -8286,7 +8284,7 @@
         <v>2232.0</v>
       </c>
       <c r="B440" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C440" s="4">
         <v>0.0</v>
@@ -8296,7 +8294,7 @@
       </c>
       <c r="E440" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="441" ht="17.25" customHeight="1">
@@ -8304,7 +8302,7 @@
         <v>2244.0</v>
       </c>
       <c r="B441" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C441" s="4">
         <v>1.0</v>
@@ -8314,7 +8312,7 @@
       </c>
       <c r="E441" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="442" ht="17.25" customHeight="1">
@@ -8340,7 +8338,7 @@
         <v>2251.0</v>
       </c>
       <c r="B443" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C443" s="4">
         <v>0.0</v>
@@ -8350,7 +8348,7 @@
       </c>
       <c r="E443" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="444" ht="17.25" customHeight="1">
@@ -8430,7 +8428,7 @@
         <v>2278.0</v>
       </c>
       <c r="B448" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C448" s="4">
         <v>0.0</v>
@@ -8440,7 +8438,7 @@
       </c>
       <c r="E448" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="449" ht="17.25" customHeight="1">
@@ -8448,7 +8446,7 @@
         <v>2281.0</v>
       </c>
       <c r="B449" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C449" s="4">
         <v>0.0</v>
@@ -8458,7 +8456,7 @@
       </c>
       <c r="E449" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="450" ht="17.25" customHeight="1">
@@ -8484,7 +8482,7 @@
         <v>2287.0</v>
       </c>
       <c r="B451" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C451" s="4">
         <v>0.0</v>
@@ -8494,7 +8492,7 @@
       </c>
       <c r="E451" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="452" ht="17.25" customHeight="1">
@@ -8502,7 +8500,7 @@
         <v>2290.0</v>
       </c>
       <c r="B452" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C452" s="4">
         <v>0.0</v>
@@ -8512,7 +8510,7 @@
       </c>
       <c r="E452" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="453" ht="17.25" customHeight="1">
@@ -8520,7 +8518,7 @@
         <v>2292.0</v>
       </c>
       <c r="B453" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C453" s="4">
         <v>1.0</v>
@@ -8530,7 +8528,7 @@
       </c>
       <c r="E453" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="454" ht="17.25" customHeight="1">
@@ -8664,7 +8662,7 @@
         <v>2360.0</v>
       </c>
       <c r="B461" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C461" s="4">
         <v>0.0</v>
@@ -8674,7 +8672,7 @@
       </c>
       <c r="E461" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="462" ht="17.25" customHeight="1">
@@ -8718,7 +8716,7 @@
         <v>2372.0</v>
       </c>
       <c r="B464" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C464" s="4">
         <v>0.0</v>
@@ -8728,7 +8726,7 @@
       </c>
       <c r="E464" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="465" ht="17.25" customHeight="1">
@@ -8772,7 +8770,7 @@
         <v>2385.0</v>
       </c>
       <c r="B467" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C467" s="4">
         <v>1.0</v>
@@ -8782,7 +8780,7 @@
       </c>
       <c r="E467" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="468" ht="17.25" customHeight="1">
@@ -8790,7 +8788,7 @@
         <v>2398.0</v>
       </c>
       <c r="B468" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C468" s="4">
         <v>0.0</v>
@@ -8800,7 +8798,7 @@
       </c>
       <c r="E468" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="469" ht="17.25" customHeight="1">
@@ -8808,7 +8806,7 @@
         <v>2400.0</v>
       </c>
       <c r="B469" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C469" s="4">
         <v>1.0</v>
@@ -8818,7 +8816,7 @@
       </c>
       <c r="E469" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="470" ht="17.25" customHeight="1">
@@ -8862,7 +8860,7 @@
         <v>2408.0</v>
       </c>
       <c r="B472" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C472" s="4">
         <v>1.0</v>
@@ -8872,7 +8870,7 @@
       </c>
       <c r="E472" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="473" ht="17.25" customHeight="1">
@@ -8898,7 +8896,7 @@
         <v>2413.0</v>
       </c>
       <c r="B474" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C474" s="4">
         <v>0.0</v>
@@ -8908,7 +8906,7 @@
       </c>
       <c r="E474" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="475" ht="17.25" customHeight="1">
@@ -9024,7 +9022,7 @@
         <v>2464.0</v>
       </c>
       <c r="B481" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C481" s="4">
         <v>0.0</v>
@@ -9034,7 +9032,7 @@
       </c>
       <c r="E481" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="482" ht="17.25" customHeight="1">
@@ -9078,7 +9076,7 @@
         <v>2485.0</v>
       </c>
       <c r="B484" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C484" s="4">
         <v>1.0</v>
@@ -9088,15 +9086,15 @@
       </c>
       <c r="E484" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="485" ht="17.25" customHeight="1">
       <c r="A485" s="3">
         <v>2491.0</v>
       </c>
-      <c r="B485" s="5" t="s">
-        <v>5</v>
+      <c r="B485" s="4">
+        <v>1.0</v>
       </c>
       <c r="C485" s="4">
         <v>0.0</v>
@@ -9106,7 +9104,7 @@
       </c>
       <c r="E485" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>-01</v>
+        <v>101</v>
       </c>
     </row>
     <row r="486" ht="17.25" customHeight="1">
@@ -9132,7 +9130,7 @@
         <v>2523.0</v>
       </c>
       <c r="B487" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C487" s="4">
         <v>1.0</v>
@@ -9142,7 +9140,7 @@
       </c>
       <c r="E487" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="488" ht="17.25" customHeight="1">
@@ -9204,7 +9202,7 @@
         <v>2535.0</v>
       </c>
       <c r="B491" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C491" s="4">
         <v>1.0</v>
@@ -9214,7 +9212,7 @@
       </c>
       <c r="E491" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="492" ht="17.25" customHeight="1">
@@ -9240,7 +9238,7 @@
         <v>2542.0</v>
       </c>
       <c r="B493" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C493" s="4">
         <v>0.0</v>
@@ -9250,7 +9248,7 @@
       </c>
       <c r="E493" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="494" ht="17.25" customHeight="1">
@@ -9258,7 +9256,7 @@
         <v>2543.0</v>
       </c>
       <c r="B494" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C494" s="4">
         <v>0.0</v>
@@ -9268,7 +9266,7 @@
       </c>
       <c r="E494" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="495" ht="17.25" customHeight="1">
@@ -9294,7 +9292,7 @@
         <v>2556.0</v>
       </c>
       <c r="B496" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C496" s="4">
         <v>0.0</v>
@@ -9304,7 +9302,7 @@
       </c>
       <c r="E496" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="497" ht="17.25" customHeight="1">
@@ -9312,7 +9310,7 @@
         <v>2557.0</v>
       </c>
       <c r="B497" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C497" s="4">
         <v>0.0</v>
@@ -9322,7 +9320,7 @@
       </c>
       <c r="E497" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="498" ht="17.25" customHeight="1">
@@ -9330,7 +9328,7 @@
         <v>2559.0</v>
       </c>
       <c r="B498" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C498" s="4">
         <v>1.0</v>
@@ -9340,7 +9338,7 @@
       </c>
       <c r="E498" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="499" ht="17.25" customHeight="1">
@@ -9348,7 +9346,7 @@
         <v>2561.0</v>
       </c>
       <c r="B499" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C499" s="4">
         <v>1.0</v>
@@ -9358,7 +9356,7 @@
       </c>
       <c r="E499" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="500" ht="17.25" customHeight="1">
@@ -9366,7 +9364,7 @@
         <v>2567.0</v>
       </c>
       <c r="B500" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C500" s="4">
         <v>0.0</v>
@@ -9376,7 +9374,7 @@
       </c>
       <c r="E500" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="501" ht="17.25" customHeight="1">
@@ -9384,7 +9382,7 @@
         <v>2568.0</v>
       </c>
       <c r="B501" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C501" s="4">
         <v>0.0</v>
@@ -9394,7 +9392,7 @@
       </c>
       <c r="E501" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="502" ht="17.25" customHeight="1">
@@ -9420,7 +9418,7 @@
         <v>2575.0</v>
       </c>
       <c r="B503" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C503" s="4">
         <v>1.0</v>
@@ -9430,7 +9428,7 @@
       </c>
       <c r="E503" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="504" ht="17.25" customHeight="1">
@@ -9438,7 +9436,7 @@
         <v>2581.0</v>
       </c>
       <c r="B504" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C504" s="4">
         <v>0.0</v>
@@ -9448,7 +9446,7 @@
       </c>
       <c r="E504" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="505" ht="17.25" customHeight="1">
@@ -9492,7 +9490,7 @@
         <v>2594.0</v>
       </c>
       <c r="B507" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C507" s="4">
         <v>0.0</v>
@@ -9502,7 +9500,7 @@
       </c>
       <c r="E507" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="508" ht="17.25" customHeight="1">
@@ -9528,7 +9526,7 @@
         <v>2596.0</v>
       </c>
       <c r="B509" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C509" s="4">
         <v>0.0</v>
@@ -9538,7 +9536,7 @@
       </c>
       <c r="E509" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="510" ht="17.25" customHeight="1">
@@ -9546,7 +9544,7 @@
         <v>2597.0</v>
       </c>
       <c r="B510" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C510" s="4">
         <v>1.0</v>
@@ -9556,7 +9554,7 @@
       </c>
       <c r="E510" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="511" ht="17.25" customHeight="1">
@@ -9564,7 +9562,7 @@
         <v>2603.0</v>
       </c>
       <c r="B511" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C511" s="4">
         <v>0.0</v>
@@ -9574,7 +9572,7 @@
       </c>
       <c r="E511" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="512" ht="17.25" customHeight="1">
@@ -9618,7 +9616,7 @@
         <v>2622.0</v>
       </c>
       <c r="B514" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C514" s="4">
         <v>0.0</v>
@@ -9628,7 +9626,7 @@
       </c>
       <c r="E514" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="515" ht="17.25" customHeight="1">
@@ -9672,7 +9670,7 @@
         <v>2643.0</v>
       </c>
       <c r="B517" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C517" s="4">
         <v>0.0</v>
@@ -9682,7 +9680,7 @@
       </c>
       <c r="E517" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="518" ht="17.25" customHeight="1">
@@ -9722,7 +9720,7 @@
         <v>2646.0</v>
       </c>
       <c r="B519" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C519" s="4">
         <v>1.0</v>
@@ -9732,7 +9730,7 @@
       </c>
       <c r="E519" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>011</v>
+        <v>111</v>
       </c>
     </row>
     <row r="520" ht="17.25" customHeight="1">
@@ -9776,7 +9774,7 @@
         <v>2687.0</v>
       </c>
       <c r="B522" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C522" s="4">
         <v>0.0</v>
@@ -9786,7 +9784,7 @@
       </c>
       <c r="E522" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="523" ht="17.25" customHeight="1">
@@ -9830,7 +9828,7 @@
         <v>2698.0</v>
       </c>
       <c r="B525" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C525" s="4">
         <v>1.0</v>
@@ -9840,7 +9838,7 @@
       </c>
       <c r="E525" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="526" ht="17.25" customHeight="1">
@@ -9920,7 +9918,7 @@
         <v>2723.0</v>
       </c>
       <c r="B530" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C530" s="4">
         <v>1.0</v>
@@ -9930,7 +9928,7 @@
       </c>
       <c r="E530" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="531" ht="17.25" customHeight="1">
@@ -9940,15 +9938,15 @@
       <c r="B531" s="4">
         <v>0.0</v>
       </c>
-      <c r="C531" s="5" t="s">
-        <v>5</v>
+      <c r="C531" s="4">
+        <v>0.0</v>
       </c>
       <c r="D531" s="4">
         <v>0.0</v>
       </c>
       <c r="E531" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0-0</v>
+        <v>000</v>
       </c>
     </row>
     <row r="532" ht="17.25" customHeight="1">
@@ -10009,8 +10007,8 @@
       <c r="A535" s="3">
         <v>2743.0</v>
       </c>
-      <c r="B535" s="5" t="s">
-        <v>5</v>
+      <c r="B535" s="4">
+        <v>1.0</v>
       </c>
       <c r="C535" s="4">
         <v>0.0</v>
@@ -10020,7 +10018,7 @@
       </c>
       <c r="E535" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>-00</v>
+        <v>100</v>
       </c>
     </row>
     <row r="536" ht="17.25" customHeight="1">
@@ -10028,7 +10026,7 @@
         <v>2763.0</v>
       </c>
       <c r="B536" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C536" s="4">
         <v>0.0</v>
@@ -10038,7 +10036,7 @@
       </c>
       <c r="E536" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="537" ht="17.25" customHeight="1">
@@ -10100,7 +10098,7 @@
         <v>2780.0</v>
       </c>
       <c r="B540" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C540" s="4">
         <v>0.0</v>
@@ -10110,7 +10108,7 @@
       </c>
       <c r="E540" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="541" ht="17.25" customHeight="1">
@@ -10136,7 +10134,7 @@
         <v>2783.0</v>
       </c>
       <c r="B542" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C542" s="4">
         <v>0.0</v>
@@ -10146,7 +10144,7 @@
       </c>
       <c r="E542" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="543" ht="17.25" customHeight="1">
@@ -10190,7 +10188,7 @@
         <v>2796.0</v>
       </c>
       <c r="B545" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C545" s="4">
         <v>0.0</v>
@@ -10200,7 +10198,7 @@
       </c>
       <c r="E545" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="546" ht="17.25" customHeight="1">
@@ -10226,7 +10224,7 @@
         <v>2804.0</v>
       </c>
       <c r="B547" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C547" s="4">
         <v>1.0</v>
@@ -10236,7 +10234,7 @@
       </c>
       <c r="E547" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>011</v>
+        <v>111</v>
       </c>
     </row>
     <row r="548" ht="17.25" customHeight="1">
@@ -10262,7 +10260,7 @@
         <v>2811.0</v>
       </c>
       <c r="B549" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C549" s="4">
         <v>1.0</v>
@@ -10272,7 +10270,7 @@
       </c>
       <c r="E549" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="550" ht="17.25" customHeight="1">
@@ -10388,7 +10386,7 @@
         <v>2840.0</v>
       </c>
       <c r="B556" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C556" s="4">
         <v>1.0</v>
@@ -10398,7 +10396,7 @@
       </c>
       <c r="E556" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="557" ht="17.25" customHeight="1">
@@ -10478,7 +10476,7 @@
         <v>2877.0</v>
       </c>
       <c r="B561" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C561" s="4">
         <v>1.0</v>
@@ -10488,7 +10486,7 @@
       </c>
       <c r="E561" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="562" ht="17.25" customHeight="1">
@@ -10496,7 +10494,7 @@
         <v>2901.0</v>
       </c>
       <c r="B562" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C562" s="4">
         <v>1.0</v>
@@ -10506,7 +10504,7 @@
       </c>
       <c r="E562" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="563" ht="17.25" customHeight="1">
@@ -10550,7 +10548,7 @@
         <v>2907.0</v>
       </c>
       <c r="B565" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C565" s="4">
         <v>0.0</v>
@@ -10560,7 +10558,7 @@
       </c>
       <c r="E565" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="566" ht="17.25" customHeight="1">
@@ -10640,7 +10638,7 @@
         <v>2934.0</v>
       </c>
       <c r="B570" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C570" s="4">
         <v>0.0</v>
@@ -10650,7 +10648,7 @@
       </c>
       <c r="E570" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="571" ht="17.25" customHeight="1">
@@ -10712,7 +10710,7 @@
         <v>2958.0</v>
       </c>
       <c r="B574" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C574" s="4">
         <v>0.0</v>
@@ -10722,7 +10720,7 @@
       </c>
       <c r="E574" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="575" ht="17.25" customHeight="1">
@@ -10730,7 +10728,7 @@
         <v>2959.0</v>
       </c>
       <c r="B575" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C575" s="4">
         <v>0.0</v>
@@ -10740,7 +10738,7 @@
       </c>
       <c r="E575" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="576" ht="17.25" customHeight="1">
@@ -10784,7 +10782,7 @@
         <v>2966.0</v>
       </c>
       <c r="B578" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C578" s="4">
         <v>1.0</v>
@@ -10794,7 +10792,7 @@
       </c>
       <c r="E578" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="579" ht="17.25" customHeight="1">
@@ -10838,7 +10836,7 @@
         <v>2970.0</v>
       </c>
       <c r="B581" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C581" s="4">
         <v>1.0</v>
@@ -10848,7 +10846,7 @@
       </c>
       <c r="E581" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="582" ht="17.25" customHeight="1">
@@ -10874,7 +10872,7 @@
         <v>2978.0</v>
       </c>
       <c r="B583" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C583" s="4">
         <v>0.0</v>
@@ -10884,7 +10882,7 @@
       </c>
       <c r="E583" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="584" ht="17.25" customHeight="1">
@@ -10892,7 +10890,7 @@
         <v>3009.0</v>
       </c>
       <c r="B584" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C584" s="4">
         <v>0.0</v>
@@ -10902,7 +10900,7 @@
       </c>
       <c r="E584" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="585" ht="17.25" customHeight="1">
@@ -10946,7 +10944,7 @@
         <v>3035.0</v>
       </c>
       <c r="B587" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C587" s="4">
         <v>0.0</v>
@@ -10956,7 +10954,7 @@
       </c>
       <c r="E587" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="588" ht="17.25" customHeight="1">
@@ -10964,7 +10962,7 @@
         <v>3042.0</v>
       </c>
       <c r="B588" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C588" s="4">
         <v>1.0</v>
@@ -10974,7 +10972,7 @@
       </c>
       <c r="E588" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>011</v>
+        <v>111</v>
       </c>
     </row>
     <row r="589" ht="17.25" customHeight="1">
@@ -11000,7 +10998,7 @@
         <v>3050.0</v>
       </c>
       <c r="B590" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C590" s="4">
         <v>1.0</v>
@@ -11010,7 +11008,7 @@
       </c>
       <c r="E590" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>011</v>
+        <v>111</v>
       </c>
     </row>
     <row r="591" ht="17.25" customHeight="1">
@@ -11018,7 +11016,7 @@
         <v>3051.0</v>
       </c>
       <c r="B591" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C591" s="4">
         <v>0.0</v>
@@ -11028,7 +11026,7 @@
       </c>
       <c r="E591" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="592" ht="17.25" customHeight="1">
@@ -11036,7 +11034,7 @@
         <v>3056.0</v>
       </c>
       <c r="B592" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C592" s="4">
         <v>0.0</v>
@@ -11046,7 +11044,7 @@
       </c>
       <c r="E592" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="593" ht="17.25" customHeight="1">
@@ -11054,7 +11052,7 @@
         <v>3064.0</v>
       </c>
       <c r="B593" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C593" s="4">
         <v>1.0</v>
@@ -11064,7 +11062,7 @@
       </c>
       <c r="E593" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="594" ht="17.25" customHeight="1">
@@ -11144,7 +11142,7 @@
         <v>3080.0</v>
       </c>
       <c r="B598" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C598" s="5" t="s">
         <v>5</v>
@@ -11154,7 +11152,7 @@
       </c>
       <c r="E598" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1-1</v>
+        <v>0-1</v>
       </c>
     </row>
     <row r="599" ht="17.25" customHeight="1">
@@ -11179,8 +11177,8 @@
       <c r="A600" s="3">
         <v>3092.0</v>
       </c>
-      <c r="B600" s="5" t="s">
-        <v>5</v>
+      <c r="B600" s="4">
+        <v>1.0</v>
       </c>
       <c r="C600" s="4">
         <v>0.0</v>
@@ -11190,7 +11188,7 @@
       </c>
       <c r="E600" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>-00</v>
+        <v>100</v>
       </c>
     </row>
     <row r="601" ht="17.25" customHeight="1">
@@ -11198,7 +11196,7 @@
         <v>3104.0</v>
       </c>
       <c r="B601" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C601" s="4">
         <v>0.0</v>
@@ -11208,7 +11206,7 @@
       </c>
       <c r="E601" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="602" ht="17.25" customHeight="1">
@@ -11252,7 +11250,7 @@
         <v>3107.0</v>
       </c>
       <c r="B604" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C604" s="4">
         <v>1.0</v>
@@ -11262,7 +11260,7 @@
       </c>
       <c r="E604" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>011</v>
+        <v>111</v>
       </c>
     </row>
     <row r="605" ht="17.25" customHeight="1">
@@ -11288,7 +11286,7 @@
         <v>3110.0</v>
       </c>
       <c r="B606" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C606" s="4">
         <v>0.0</v>
@@ -11298,7 +11296,7 @@
       </c>
       <c r="E606" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="607" ht="17.25" customHeight="1">
@@ -11306,7 +11304,7 @@
         <v>3112.0</v>
       </c>
       <c r="B607" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C607" s="4">
         <v>1.0</v>
@@ -11316,7 +11314,7 @@
       </c>
       <c r="E607" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="608" ht="17.25" customHeight="1">
@@ -11360,7 +11358,7 @@
         <v>3122.0</v>
       </c>
       <c r="B610" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C610" s="4">
         <v>0.0</v>
@@ -11370,7 +11368,7 @@
       </c>
       <c r="E610" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="611" ht="17.25" customHeight="1">
@@ -11396,7 +11394,7 @@
         <v>3131.0</v>
       </c>
       <c r="B612" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C612" s="4">
         <v>1.0</v>
@@ -11406,7 +11404,7 @@
       </c>
       <c r="E612" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="613" ht="17.25" customHeight="1">
@@ -11414,7 +11412,7 @@
         <v>3138.0</v>
       </c>
       <c r="B613" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C613" s="4">
         <v>0.0</v>
@@ -11424,7 +11422,7 @@
       </c>
       <c r="E613" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="614" ht="17.25" customHeight="1">
@@ -11450,7 +11448,7 @@
         <v>3165.0</v>
       </c>
       <c r="B615" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C615" s="4">
         <v>1.0</v>
@@ -11460,7 +11458,7 @@
       </c>
       <c r="E615" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="616" ht="17.25" customHeight="1">
@@ -11468,7 +11466,7 @@
         <v>3166.0</v>
       </c>
       <c r="B616" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C616" s="4">
         <v>1.0</v>
@@ -11478,7 +11476,7 @@
       </c>
       <c r="E616" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="617" ht="17.25" customHeight="1">
@@ -11504,7 +11502,7 @@
         <v>3176.0</v>
       </c>
       <c r="B618" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C618" s="4">
         <v>0.0</v>
@@ -11514,7 +11512,7 @@
       </c>
       <c r="E618" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="619" ht="17.25" customHeight="1">
@@ -11522,7 +11520,7 @@
         <v>3182.0</v>
       </c>
       <c r="B619" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C619" s="4">
         <v>0.0</v>
@@ -11532,7 +11530,7 @@
       </c>
       <c r="E619" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="620" ht="17.25" customHeight="1">
@@ -11558,7 +11556,7 @@
         <v>3198.0</v>
       </c>
       <c r="B621" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C621" s="4">
         <v>0.0</v>
@@ -11568,7 +11566,7 @@
       </c>
       <c r="E621" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="622" ht="17.25" customHeight="1">
@@ -11593,8 +11591,8 @@
       <c r="A623" s="3">
         <v>3200.0</v>
       </c>
-      <c r="B623" s="5" t="s">
-        <v>5</v>
+      <c r="B623" s="4">
+        <v>0.0</v>
       </c>
       <c r="C623" s="5" t="s">
         <v>5</v>
@@ -11604,7 +11602,7 @@
       </c>
       <c r="E623" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>--1</v>
+        <v>0-1</v>
       </c>
     </row>
     <row r="624" ht="17.25" customHeight="1">
@@ -11612,7 +11610,7 @@
         <v>3202.0</v>
       </c>
       <c r="B624" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C624" s="4">
         <v>0.0</v>
@@ -11622,7 +11620,7 @@
       </c>
       <c r="E624" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="625" ht="17.25" customHeight="1">
@@ -11684,7 +11682,7 @@
         <v>3216.0</v>
       </c>
       <c r="B628" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C628" s="4">
         <v>1.0</v>
@@ -11694,7 +11692,7 @@
       </c>
       <c r="E628" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="629" ht="17.25" customHeight="1">
@@ -11702,7 +11700,7 @@
         <v>3228.0</v>
       </c>
       <c r="B629" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C629" s="4">
         <v>1.0</v>
@@ -11712,7 +11710,7 @@
       </c>
       <c r="E629" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="630" ht="17.25" customHeight="1">
@@ -11737,8 +11735,8 @@
       <c r="A631" s="3">
         <v>3241.0</v>
       </c>
-      <c r="B631" s="5" t="s">
-        <v>5</v>
+      <c r="B631" s="4">
+        <v>1.0</v>
       </c>
       <c r="C631" s="4">
         <v>0.0</v>
@@ -11748,7 +11746,7 @@
       </c>
       <c r="E631" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>-01</v>
+        <v>101</v>
       </c>
     </row>
     <row r="632" ht="17.25" customHeight="1">
@@ -11758,23 +11756,23 @@
       <c r="B632" s="4">
         <v>0.0</v>
       </c>
-      <c r="C632" s="5" t="s">
-        <v>5</v>
+      <c r="C632" s="4">
+        <v>0.0</v>
       </c>
       <c r="D632" s="4">
         <v>1.0</v>
       </c>
       <c r="E632" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0-1</v>
+        <v>001</v>
       </c>
     </row>
     <row r="633" ht="17.25" customHeight="1">
       <c r="A633" s="3">
         <v>3255.0</v>
       </c>
-      <c r="B633" s="5" t="s">
-        <v>5</v>
+      <c r="B633" s="4">
+        <v>1.0</v>
       </c>
       <c r="C633" s="5" t="s">
         <v>5</v>
@@ -11784,7 +11782,7 @@
       </c>
       <c r="E633" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>--1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="634" ht="17.25" customHeight="1">
@@ -11792,7 +11790,7 @@
         <v>3267.0</v>
       </c>
       <c r="B634" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C634" s="4">
         <v>1.0</v>
@@ -11802,7 +11800,7 @@
       </c>
       <c r="E634" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="635" ht="17.25" customHeight="1">
@@ -11828,7 +11826,7 @@
         <v>3282.0</v>
       </c>
       <c r="B636" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C636" s="4">
         <v>0.0</v>
@@ -11838,7 +11836,7 @@
       </c>
       <c r="E636" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="637" ht="17.25" customHeight="1">
@@ -11882,7 +11880,7 @@
         <v>3290.0</v>
       </c>
       <c r="B639" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C639" s="4">
         <v>0.0</v>
@@ -11892,7 +11890,7 @@
       </c>
       <c r="E639" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="640" ht="17.25" customHeight="1">
@@ -11936,7 +11934,7 @@
         <v>3307.0</v>
       </c>
       <c r="B642" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C642" s="4">
         <v>0.0</v>
@@ -11946,7 +11944,7 @@
       </c>
       <c r="E642" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="643" ht="17.25" customHeight="1">
@@ -11954,7 +11952,7 @@
         <v>3308.0</v>
       </c>
       <c r="B643" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C643" s="4">
         <v>0.0</v>
@@ -11964,7 +11962,7 @@
       </c>
       <c r="E643" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="644" ht="17.25" customHeight="1">
@@ -11972,7 +11970,7 @@
         <v>3309.0</v>
       </c>
       <c r="B644" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C644" s="4">
         <v>1.0</v>
@@ -11982,7 +11980,7 @@
       </c>
       <c r="E644" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="645" ht="17.25" customHeight="1">
@@ -11990,7 +11988,7 @@
         <v>3310.0</v>
       </c>
       <c r="B645" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C645" s="4">
         <v>0.0</v>
@@ -12000,7 +11998,7 @@
       </c>
       <c r="E645" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="646" ht="17.25" customHeight="1">
@@ -12008,7 +12006,7 @@
         <v>3320.0</v>
       </c>
       <c r="B646" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C646" s="4">
         <v>0.0</v>
@@ -12018,7 +12016,7 @@
       </c>
       <c r="E646" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="647" ht="17.25" customHeight="1">
@@ -12062,7 +12060,7 @@
         <v>3333.0</v>
       </c>
       <c r="B649" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C649" s="4">
         <v>0.0</v>
@@ -12072,7 +12070,7 @@
       </c>
       <c r="E649" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="650" ht="17.25" customHeight="1">
@@ -12098,7 +12096,7 @@
         <v>3348.0</v>
       </c>
       <c r="B651" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C651" s="4">
         <v>1.0</v>
@@ -12108,7 +12106,7 @@
       </c>
       <c r="E651" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="652" ht="17.25" customHeight="1">
@@ -12206,7 +12204,7 @@
         <v>3380.0</v>
       </c>
       <c r="B657" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C657" s="4">
         <v>0.0</v>
@@ -12216,7 +12214,7 @@
       </c>
       <c r="E657" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="658" ht="17.25" customHeight="1">
@@ -12224,7 +12222,7 @@
         <v>3389.0</v>
       </c>
       <c r="B658" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C658" s="4">
         <v>1.0</v>
@@ -12234,7 +12232,7 @@
       </c>
       <c r="E658" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="659" ht="17.25" customHeight="1">
@@ -12296,7 +12294,7 @@
         <v>3403.0</v>
       </c>
       <c r="B662" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C662" s="4">
         <v>1.0</v>
@@ -12306,7 +12304,7 @@
       </c>
       <c r="E662" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="663" ht="17.25" customHeight="1">
@@ -12422,7 +12420,7 @@
         <v>3431.0</v>
       </c>
       <c r="B669" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C669" s="4">
         <v>1.0</v>
@@ -12432,7 +12430,7 @@
       </c>
       <c r="E669" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="670" ht="17.25" customHeight="1">
@@ -12440,7 +12438,7 @@
         <v>3438.0</v>
       </c>
       <c r="B670" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C670" s="4">
         <v>0.0</v>
@@ -12450,7 +12448,7 @@
       </c>
       <c r="E670" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="671" ht="17.25" customHeight="1">
@@ -12476,7 +12474,7 @@
         <v>3447.0</v>
       </c>
       <c r="B672" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C672" s="4">
         <v>0.0</v>
@@ -12486,7 +12484,7 @@
       </c>
       <c r="E672" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="673" ht="17.25" customHeight="1">
@@ -12494,7 +12492,7 @@
         <v>3448.0</v>
       </c>
       <c r="B673" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C673" s="4">
         <v>1.0</v>
@@ -12504,7 +12502,7 @@
       </c>
       <c r="E673" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="674" ht="17.25" customHeight="1">
@@ -12514,15 +12512,15 @@
       <c r="B674" s="4">
         <v>0.0</v>
       </c>
-      <c r="C674" s="5" t="s">
-        <v>5</v>
+      <c r="C674" s="4">
+        <v>0.0</v>
       </c>
       <c r="D674" s="4">
         <v>1.0</v>
       </c>
       <c r="E674" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0-1</v>
+        <v>001</v>
       </c>
     </row>
     <row r="675" ht="17.25" customHeight="1">
@@ -12548,7 +12546,7 @@
         <v>3455.0</v>
       </c>
       <c r="B676" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C676" s="4">
         <v>0.0</v>
@@ -12558,7 +12556,7 @@
       </c>
       <c r="E676" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="677" ht="17.25" customHeight="1">
@@ -12566,7 +12564,7 @@
         <v>3463.0</v>
       </c>
       <c r="B677" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C677" s="4">
         <v>1.0</v>
@@ -12576,7 +12574,7 @@
       </c>
       <c r="E677" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>011</v>
+        <v>111</v>
       </c>
     </row>
     <row r="678" ht="17.25" customHeight="1">
@@ -12602,7 +12600,7 @@
         <v>3474.0</v>
       </c>
       <c r="B679" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C679" s="4">
         <v>1.0</v>
@@ -12612,7 +12610,7 @@
       </c>
       <c r="E679" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>011</v>
+        <v>111</v>
       </c>
     </row>
     <row r="680" ht="17.25" customHeight="1">
@@ -12638,7 +12636,7 @@
         <v>3488.0</v>
       </c>
       <c r="B681" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C681" s="4">
         <v>0.0</v>
@@ -12648,7 +12646,7 @@
       </c>
       <c r="E681" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="682" ht="17.25" customHeight="1">
@@ -12656,7 +12654,7 @@
         <v>3490.0</v>
       </c>
       <c r="B682" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C682" s="4">
         <v>0.0</v>
@@ -12666,7 +12664,7 @@
       </c>
       <c r="E682" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="683" ht="17.25" customHeight="1">
@@ -12674,7 +12672,7 @@
         <v>3492.0</v>
       </c>
       <c r="B683" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C683" s="4">
         <v>0.0</v>
@@ -12684,7 +12682,7 @@
       </c>
       <c r="E683" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="684" ht="17.25" customHeight="1">
@@ -12692,7 +12690,7 @@
         <v>3500.0</v>
       </c>
       <c r="B684" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C684" s="4">
         <v>1.0</v>
@@ -12702,7 +12700,7 @@
       </c>
       <c r="E684" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="685" ht="17.25" customHeight="1">
@@ -12728,7 +12726,7 @@
         <v>3514.0</v>
       </c>
       <c r="B686" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C686" s="4">
         <v>0.0</v>
@@ -12738,7 +12736,7 @@
       </c>
       <c r="E686" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="687" ht="17.25" customHeight="1">
@@ -12746,7 +12744,7 @@
         <v>3515.0</v>
       </c>
       <c r="B687" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C687" s="4">
         <v>0.0</v>
@@ -12756,7 +12754,7 @@
       </c>
       <c r="E687" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="688" ht="17.25" customHeight="1">
@@ -12764,7 +12762,7 @@
         <v>3521.0</v>
       </c>
       <c r="B688" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C688" s="4">
         <v>0.0</v>
@@ -12774,7 +12772,7 @@
       </c>
       <c r="E688" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="689" ht="17.25" customHeight="1">
@@ -12800,7 +12798,7 @@
         <v>3529.0</v>
       </c>
       <c r="B690" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C690" s="4">
         <v>0.0</v>
@@ -12810,7 +12808,7 @@
       </c>
       <c r="E690" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="691" ht="17.25" customHeight="1">
@@ -12818,7 +12816,7 @@
         <v>3533.0</v>
       </c>
       <c r="B691" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C691" s="4">
         <v>0.0</v>
@@ -12828,7 +12826,7 @@
       </c>
       <c r="E691" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="692" ht="17.25" customHeight="1">
@@ -12836,7 +12834,7 @@
         <v>3535.0</v>
       </c>
       <c r="B692" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C692" s="4">
         <v>0.0</v>
@@ -12846,7 +12844,7 @@
       </c>
       <c r="E692" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="693" ht="17.25" customHeight="1">
@@ -12854,7 +12852,7 @@
         <v>3549.0</v>
       </c>
       <c r="B693" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C693" s="4">
         <v>1.0</v>
@@ -12864,7 +12862,7 @@
       </c>
       <c r="E693" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="694" ht="17.25" customHeight="1">
@@ -12872,7 +12870,7 @@
         <v>3558.0</v>
       </c>
       <c r="B694" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C694" s="4">
         <v>1.0</v>
@@ -12882,7 +12880,7 @@
       </c>
       <c r="E694" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="695" ht="17.25" customHeight="1">
@@ -12944,7 +12942,7 @@
         <v>3592.0</v>
       </c>
       <c r="B698" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C698" s="4">
         <v>0.0</v>
@@ -12954,7 +12952,7 @@
       </c>
       <c r="E698" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="699" ht="17.25" customHeight="1">
@@ -12980,7 +12978,7 @@
         <v>3600.0</v>
       </c>
       <c r="B700" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C700" s="4">
         <v>0.0</v>
@@ -12990,7 +12988,7 @@
       </c>
       <c r="E700" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="701" ht="17.25" customHeight="1">
@@ -12998,7 +12996,7 @@
         <v>3603.0</v>
       </c>
       <c r="B701" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C701" s="4">
         <v>0.0</v>
@@ -13008,7 +13006,7 @@
       </c>
       <c r="E701" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="702" ht="17.25" customHeight="1">
@@ -13052,7 +13050,7 @@
         <v>3628.0</v>
       </c>
       <c r="B704" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C704" s="4">
         <v>0.0</v>
@@ -13062,7 +13060,7 @@
       </c>
       <c r="E704" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="705" ht="17.25" customHeight="1">
@@ -13070,7 +13068,7 @@
         <v>3643.0</v>
       </c>
       <c r="B705" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C705" s="4">
         <v>0.0</v>
@@ -13080,7 +13078,7 @@
       </c>
       <c r="E705" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="706" ht="17.25" customHeight="1">
@@ -13088,7 +13086,7 @@
         <v>3647.0</v>
       </c>
       <c r="B706" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C706" s="4">
         <v>1.0</v>
@@ -13098,7 +13096,7 @@
       </c>
       <c r="E706" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="707" ht="17.25" customHeight="1">
@@ -13160,7 +13158,7 @@
         <v>3653.0</v>
       </c>
       <c r="B710" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C710" s="4">
         <v>0.0</v>
@@ -13170,7 +13168,7 @@
       </c>
       <c r="E710" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="711" ht="17.25" customHeight="1">
@@ -13178,7 +13176,7 @@
         <v>3657.0</v>
       </c>
       <c r="B711" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C711" s="4">
         <v>0.0</v>
@@ -13188,7 +13186,7 @@
       </c>
       <c r="E711" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="712" ht="17.25" customHeight="1">
@@ -13214,7 +13212,7 @@
         <v>3662.0</v>
       </c>
       <c r="B713" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C713" s="4">
         <v>0.0</v>
@@ -13224,7 +13222,7 @@
       </c>
       <c r="E713" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="714" ht="17.25" customHeight="1">
@@ -13232,7 +13230,7 @@
         <v>3663.0</v>
       </c>
       <c r="B714" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C714" s="4">
         <v>0.0</v>
@@ -13242,7 +13240,7 @@
       </c>
       <c r="E714" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="715" ht="17.25" customHeight="1">
@@ -13250,7 +13248,7 @@
         <v>3676.0</v>
       </c>
       <c r="B715" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C715" s="4">
         <v>0.0</v>
@@ -13260,7 +13258,7 @@
       </c>
       <c r="E715" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="716" ht="17.25" customHeight="1">
@@ -13268,7 +13266,7 @@
         <v>3677.0</v>
       </c>
       <c r="B716" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C716" s="4">
         <v>0.0</v>
@@ -13278,7 +13276,7 @@
       </c>
       <c r="E716" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="717" ht="17.25" customHeight="1">
@@ -13322,7 +13320,7 @@
         <v>3686.0</v>
       </c>
       <c r="B719" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C719" s="5" t="s">
         <v>5</v>
@@ -13332,7 +13330,7 @@
       </c>
       <c r="E719" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1-1</v>
+        <v>0-1</v>
       </c>
     </row>
     <row r="720" ht="17.25" customHeight="1">
@@ -13448,7 +13446,7 @@
         <v>3719.0</v>
       </c>
       <c r="B726" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C726" s="4">
         <v>0.0</v>
@@ -13458,7 +13456,7 @@
       </c>
       <c r="E726" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="727" ht="17.25" customHeight="1">
@@ -13466,7 +13464,7 @@
         <v>3723.0</v>
       </c>
       <c r="B727" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C727" s="4">
         <v>0.0</v>
@@ -13476,7 +13474,7 @@
       </c>
       <c r="E727" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="728" ht="17.25" customHeight="1">
@@ -13484,7 +13482,7 @@
         <v>3725.0</v>
       </c>
       <c r="B728" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C728" s="4">
         <v>0.0</v>
@@ -13494,7 +13492,7 @@
       </c>
       <c r="E728" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="729" ht="17.25" customHeight="1">
@@ -13520,7 +13518,7 @@
         <v>3736.0</v>
       </c>
       <c r="B730" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C730" s="4">
         <v>0.0</v>
@@ -13530,7 +13528,7 @@
       </c>
       <c r="E730" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="731" ht="17.25" customHeight="1">
@@ -13538,7 +13536,7 @@
         <v>3737.0</v>
       </c>
       <c r="B731" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C731" s="4">
         <v>1.0</v>
@@ -13548,7 +13546,7 @@
       </c>
       <c r="E731" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="732" ht="17.25" customHeight="1">
@@ -13592,7 +13590,7 @@
         <v>3784.0</v>
       </c>
       <c r="B734" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C734" s="4">
         <v>0.0</v>
@@ -13602,7 +13600,7 @@
       </c>
       <c r="E734" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="735" ht="17.25" customHeight="1">
@@ -13700,7 +13698,7 @@
         <v>3826.0</v>
       </c>
       <c r="B740" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C740" s="4">
         <v>0.0</v>
@@ -13710,7 +13708,7 @@
       </c>
       <c r="E740" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="741" ht="17.25" customHeight="1">
@@ -13772,7 +13770,7 @@
         <v>3833.0</v>
       </c>
       <c r="B744" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C744" s="4">
         <v>0.0</v>
@@ -13782,15 +13780,15 @@
       </c>
       <c r="E744" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="745" ht="17.25" customHeight="1">
       <c r="A745" s="3">
         <v>3835.0</v>
       </c>
-      <c r="B745" s="5" t="s">
-        <v>5</v>
+      <c r="B745" s="4">
+        <v>0.0</v>
       </c>
       <c r="C745" s="4">
         <v>0.0</v>
@@ -13800,7 +13798,7 @@
       </c>
       <c r="E745" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>-00</v>
+        <v>000</v>
       </c>
     </row>
     <row r="746" ht="17.25" customHeight="1">
@@ -13808,7 +13806,7 @@
         <v>3845.0</v>
       </c>
       <c r="B746" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C746" s="4">
         <v>1.0</v>
@@ -13818,7 +13816,7 @@
       </c>
       <c r="E746" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="747" ht="17.25" customHeight="1">
@@ -13826,7 +13824,7 @@
         <v>3846.0</v>
       </c>
       <c r="B747" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C747" s="4">
         <v>0.0</v>
@@ -13836,7 +13834,7 @@
       </c>
       <c r="E747" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="748" ht="17.25" customHeight="1">
@@ -13844,7 +13842,7 @@
         <v>3847.0</v>
       </c>
       <c r="B748" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C748" s="4">
         <v>0.0</v>
@@ -13854,7 +13852,7 @@
       </c>
       <c r="E748" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="749" ht="17.25" customHeight="1">
@@ -13862,7 +13860,7 @@
         <v>3848.0</v>
       </c>
       <c r="B749" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C749" s="5" t="s">
         <v>5</v>
@@ -13872,7 +13870,7 @@
       </c>
       <c r="E749" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1-1</v>
+        <v>0-1</v>
       </c>
     </row>
     <row r="750" ht="17.25" customHeight="1">
@@ -13897,8 +13895,8 @@
       <c r="A751" s="3">
         <v>3852.0</v>
       </c>
-      <c r="B751" s="5" t="s">
-        <v>5</v>
+      <c r="B751" s="4">
+        <v>0.0</v>
       </c>
       <c r="C751" s="5" t="s">
         <v>5</v>
@@ -13908,7 +13906,7 @@
       </c>
       <c r="E751" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>--1</v>
+        <v>0-1</v>
       </c>
     </row>
     <row r="752" ht="17.25" customHeight="1">
@@ -13916,7 +13914,7 @@
         <v>3853.0</v>
       </c>
       <c r="B752" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C752" s="4">
         <v>1.0</v>
@@ -13926,7 +13924,7 @@
       </c>
       <c r="E752" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="753" ht="17.25" customHeight="1">
@@ -13988,7 +13986,7 @@
         <v>3884.0</v>
       </c>
       <c r="B756" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C756" s="4">
         <v>0.0</v>
@@ -13998,7 +13996,7 @@
       </c>
       <c r="E756" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="757" ht="17.25" customHeight="1">
@@ -14042,7 +14040,7 @@
         <v>3890.0</v>
       </c>
       <c r="B759" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C759" s="4">
         <v>0.0</v>
@@ -14052,7 +14050,7 @@
       </c>
       <c r="E759" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="760" ht="17.25" customHeight="1">
@@ -14060,7 +14058,7 @@
         <v>3891.0</v>
       </c>
       <c r="B760" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C760" s="4">
         <v>0.0</v>
@@ -14070,7 +14068,7 @@
       </c>
       <c r="E760" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="761" ht="17.25" customHeight="1">
@@ -14078,17 +14076,17 @@
         <v>3893.0</v>
       </c>
       <c r="B761" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C761" s="5" t="s">
-        <v>5</v>
+        <v>0.0</v>
+      </c>
+      <c r="C761" s="4">
+        <v>0.0</v>
       </c>
       <c r="D761" s="4">
         <v>1.0</v>
       </c>
       <c r="E761" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1-1</v>
+        <v>001</v>
       </c>
     </row>
     <row r="762" ht="17.25" customHeight="1">
@@ -14113,8 +14111,8 @@
       <c r="A763" s="3">
         <v>3903.0</v>
       </c>
-      <c r="B763" s="5" t="s">
-        <v>5</v>
+      <c r="B763" s="4">
+        <v>0.0</v>
       </c>
       <c r="C763" s="5" t="s">
         <v>5</v>
@@ -14124,7 +14122,7 @@
       </c>
       <c r="E763" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>--1</v>
+        <v>0-1</v>
       </c>
     </row>
     <row r="764" ht="17.25" customHeight="1">
@@ -14168,7 +14166,7 @@
         <v>3910.0</v>
       </c>
       <c r="B766" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C766" s="4">
         <v>0.0</v>
@@ -14178,7 +14176,7 @@
       </c>
       <c r="E766" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="767" ht="17.25" customHeight="1">
@@ -14204,7 +14202,7 @@
         <v>3919.0</v>
       </c>
       <c r="B768" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C768" s="4">
         <v>0.0</v>
@@ -14214,7 +14212,7 @@
       </c>
       <c r="E768" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="769" ht="17.25" customHeight="1">
@@ -14275,8 +14273,8 @@
       <c r="A772" s="3">
         <v>3948.0</v>
       </c>
-      <c r="B772" s="5" t="s">
-        <v>5</v>
+      <c r="B772" s="4">
+        <v>0.0</v>
       </c>
       <c r="C772" s="4">
         <v>0.0</v>
@@ -14286,7 +14284,7 @@
       </c>
       <c r="E772" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>-01</v>
+        <v>001</v>
       </c>
     </row>
     <row r="773" ht="17.25" customHeight="1">
@@ -14420,7 +14418,7 @@
         <v>4062.0</v>
       </c>
       <c r="B780" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C780" s="4">
         <v>0.0</v>
@@ -14430,7 +14428,7 @@
       </c>
       <c r="E780" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="781" ht="17.25" customHeight="1">
@@ -14456,7 +14454,7 @@
         <v>4065.0</v>
       </c>
       <c r="B782" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C782" s="4">
         <v>1.0</v>
@@ -14466,7 +14464,7 @@
       </c>
       <c r="E782" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="783" ht="17.25" customHeight="1">
@@ -14474,7 +14472,7 @@
         <v>4070.0</v>
       </c>
       <c r="B783" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C783" s="4">
         <v>0.0</v>
@@ -14484,7 +14482,7 @@
       </c>
       <c r="E783" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="784" ht="17.25" customHeight="1">
@@ -14492,17 +14490,17 @@
         <v>4071.0</v>
       </c>
       <c r="B784" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C784" s="5" t="s">
-        <v>5</v>
+        <v>0.0</v>
+      </c>
+      <c r="C784" s="4">
+        <v>0.0</v>
       </c>
       <c r="D784" s="4">
         <v>0.0</v>
       </c>
       <c r="E784" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1-0</v>
+        <v>000</v>
       </c>
     </row>
     <row r="785" ht="17.25" customHeight="1">
@@ -14512,15 +14510,15 @@
       <c r="B785" s="4">
         <v>0.0</v>
       </c>
-      <c r="C785" s="5" t="s">
-        <v>5</v>
+      <c r="C785" s="4">
+        <v>0.0</v>
       </c>
       <c r="D785" s="4">
         <v>1.0</v>
       </c>
       <c r="E785" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0-1</v>
+        <v>001</v>
       </c>
     </row>
     <row r="786" ht="17.25" customHeight="1">
@@ -14564,7 +14562,7 @@
         <v>4088.0</v>
       </c>
       <c r="B788" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C788" s="4">
         <v>1.0</v>
@@ -14574,7 +14572,7 @@
       </c>
       <c r="E788" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="789" ht="17.25" customHeight="1">
@@ -14600,7 +14598,7 @@
         <v>4093.0</v>
       </c>
       <c r="B790" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C790" s="4">
         <v>1.0</v>
@@ -14610,7 +14608,7 @@
       </c>
       <c r="E790" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="791" ht="17.25" customHeight="1">
@@ -14618,7 +14616,7 @@
         <v>4102.0</v>
       </c>
       <c r="B791" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C791" s="4">
         <v>1.0</v>
@@ -14628,7 +14626,7 @@
       </c>
       <c r="E791" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="792" ht="17.25" customHeight="1">
@@ -14672,7 +14670,7 @@
         <v>4126.0</v>
       </c>
       <c r="B794" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C794" s="5" t="s">
         <v>5</v>
@@ -14682,7 +14680,7 @@
       </c>
       <c r="E794" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1-1</v>
+        <v>0-1</v>
       </c>
     </row>
     <row r="795" ht="17.25" customHeight="1">
@@ -14690,7 +14688,7 @@
         <v>4127.0</v>
       </c>
       <c r="B795" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C795" s="4">
         <v>0.0</v>
@@ -14700,7 +14698,7 @@
       </c>
       <c r="E795" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="796" ht="17.25" customHeight="1">
@@ -14744,7 +14742,7 @@
         <v>4132.0</v>
       </c>
       <c r="B798" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C798" s="4">
         <v>0.0</v>
@@ -14754,7 +14752,7 @@
       </c>
       <c r="E798" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="799" ht="17.25" customHeight="1">
@@ -14762,7 +14760,7 @@
         <v>4133.0</v>
       </c>
       <c r="B799" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C799" s="4">
         <v>0.0</v>
@@ -14772,7 +14770,7 @@
       </c>
       <c r="E799" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="800" ht="17.25" customHeight="1">
@@ -14798,7 +14796,7 @@
         <v>4141.0</v>
       </c>
       <c r="B801" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C801" s="4">
         <v>0.0</v>
@@ -14808,7 +14806,7 @@
       </c>
       <c r="E801" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="802" ht="17.25" customHeight="1">
@@ -14834,7 +14832,7 @@
         <v>4147.0</v>
       </c>
       <c r="B803" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C803" s="4">
         <v>0.0</v>
@@ -14844,7 +14842,7 @@
       </c>
       <c r="E803" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="804" ht="17.25" customHeight="1">
@@ -14870,7 +14868,7 @@
         <v>4150.0</v>
       </c>
       <c r="B805" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C805" s="4">
         <v>1.0</v>
@@ -14880,7 +14878,7 @@
       </c>
       <c r="E805" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="806" ht="17.25" customHeight="1">
@@ -14888,7 +14886,7 @@
         <v>4152.0</v>
       </c>
       <c r="B806" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C806" s="4">
         <v>0.0</v>
@@ -14898,7 +14896,7 @@
       </c>
       <c r="E806" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="807" ht="17.25" customHeight="1">
@@ -14906,7 +14904,7 @@
         <v>4155.0</v>
       </c>
       <c r="B807" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C807" s="4">
         <v>0.0</v>
@@ -14916,7 +14914,7 @@
       </c>
       <c r="E807" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="808" ht="17.25" customHeight="1">
@@ -14924,7 +14922,7 @@
         <v>4160.0</v>
       </c>
       <c r="B808" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C808" s="4">
         <v>0.0</v>
@@ -14934,7 +14932,7 @@
       </c>
       <c r="E808" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="809" ht="17.25" customHeight="1">
@@ -14942,7 +14940,7 @@
         <v>4178.0</v>
       </c>
       <c r="B809" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C809" s="4">
         <v>0.0</v>
@@ -14952,7 +14950,7 @@
       </c>
       <c r="E809" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="810" ht="17.25" customHeight="1">
@@ -14962,15 +14960,15 @@
       <c r="B810" s="4">
         <v>1.0</v>
       </c>
-      <c r="C810" s="5" t="s">
-        <v>5</v>
+      <c r="C810" s="4">
+        <v>1.0</v>
       </c>
       <c r="D810" s="4">
         <v>1.0</v>
       </c>
       <c r="E810" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1-1</v>
+        <v>111</v>
       </c>
     </row>
     <row r="811" ht="17.25" customHeight="1">
@@ -14978,7 +14976,7 @@
         <v>4184.0</v>
       </c>
       <c r="B811" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C811" s="4">
         <v>0.0</v>
@@ -14988,7 +14986,7 @@
       </c>
       <c r="E811" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="812" ht="17.25" customHeight="1">
@@ -14996,7 +14994,7 @@
         <v>4187.0</v>
       </c>
       <c r="B812" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C812" s="4">
         <v>0.0</v>
@@ -15006,7 +15004,7 @@
       </c>
       <c r="E812" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="813" ht="17.25" customHeight="1">
@@ -15014,7 +15012,7 @@
         <v>4190.0</v>
       </c>
       <c r="B813" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C813" s="4">
         <v>0.0</v>
@@ -15024,7 +15022,7 @@
       </c>
       <c r="E813" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="814" ht="17.25" customHeight="1">
@@ -15032,7 +15030,7 @@
         <v>4193.0</v>
       </c>
       <c r="B814" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C814" s="4">
         <v>1.0</v>
@@ -15042,7 +15040,7 @@
       </c>
       <c r="E814" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="815" ht="17.25" customHeight="1">
@@ -15050,7 +15048,7 @@
         <v>4194.0</v>
       </c>
       <c r="B815" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C815" s="4">
         <v>0.0</v>
@@ -15060,7 +15058,7 @@
       </c>
       <c r="E815" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="816" ht="17.25" customHeight="1">
@@ -15068,7 +15066,7 @@
         <v>4216.0</v>
       </c>
       <c r="B816" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C816" s="4">
         <v>1.0</v>
@@ -15078,7 +15076,7 @@
       </c>
       <c r="E816" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="817" ht="17.25" customHeight="1">
@@ -15122,7 +15120,7 @@
         <v>4226.0</v>
       </c>
       <c r="B819" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C819" s="4">
         <v>0.0</v>
@@ -15132,7 +15130,7 @@
       </c>
       <c r="E819" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="820" ht="17.25" customHeight="1">
@@ -15140,7 +15138,7 @@
         <v>4235.0</v>
       </c>
       <c r="B820" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C820" s="4">
         <v>0.0</v>
@@ -15150,7 +15148,7 @@
       </c>
       <c r="E820" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="821" ht="17.25" customHeight="1">
@@ -15176,7 +15174,7 @@
         <v>4246.0</v>
       </c>
       <c r="B822" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C822" s="4">
         <v>0.0</v>
@@ -15186,7 +15184,7 @@
       </c>
       <c r="E822" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="823" ht="17.25" customHeight="1">
@@ -15194,17 +15192,17 @@
         <v>4248.0</v>
       </c>
       <c r="B823" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C823" s="5" t="s">
-        <v>5</v>
+        <v>0.0</v>
+      </c>
+      <c r="C823" s="4">
+        <v>0.0</v>
       </c>
       <c r="D823" s="4">
         <v>0.0</v>
       </c>
       <c r="E823" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1-0</v>
+        <v>000</v>
       </c>
     </row>
     <row r="824" ht="17.25" customHeight="1">
@@ -15212,7 +15210,7 @@
         <v>4252.0</v>
       </c>
       <c r="B824" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C824" s="4">
         <v>1.0</v>
@@ -15222,7 +15220,7 @@
       </c>
       <c r="E824" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="825" ht="17.25" customHeight="1">
@@ -15248,7 +15246,7 @@
         <v>4260.0</v>
       </c>
       <c r="B826" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C826" s="4">
         <v>1.0</v>
@@ -15258,7 +15256,7 @@
       </c>
       <c r="E826" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="827" ht="17.25" customHeight="1">
@@ -15284,7 +15282,7 @@
         <v>4266.0</v>
       </c>
       <c r="B828" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C828" s="4">
         <v>0.0</v>
@@ -15294,7 +15292,7 @@
       </c>
       <c r="E828" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="829" ht="17.25" customHeight="1">
@@ -15338,7 +15336,7 @@
         <v>4275.0</v>
       </c>
       <c r="B831" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C831" s="4">
         <v>0.0</v>
@@ -15348,7 +15346,7 @@
       </c>
       <c r="E831" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="832" ht="17.25" customHeight="1">
@@ -15374,7 +15372,7 @@
         <v>4290.0</v>
       </c>
       <c r="B833" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C833" s="4">
         <v>0.0</v>
@@ -15384,7 +15382,7 @@
       </c>
       <c r="E833" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="834" ht="17.25" customHeight="1">
@@ -15392,7 +15390,7 @@
         <v>4291.0</v>
       </c>
       <c r="B834" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C834" s="4">
         <v>0.0</v>
@@ -15402,7 +15400,7 @@
       </c>
       <c r="E834" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="835" ht="17.25" customHeight="1">
@@ -15427,8 +15425,8 @@
       <c r="A836" s="3">
         <v>4302.0</v>
       </c>
-      <c r="B836" s="5" t="s">
-        <v>5</v>
+      <c r="B836" s="4">
+        <v>1.0</v>
       </c>
       <c r="C836" s="4">
         <v>0.0</v>
@@ -15438,7 +15436,7 @@
       </c>
       <c r="E836" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>-01</v>
+        <v>101</v>
       </c>
     </row>
     <row r="837" ht="17.25" customHeight="1">
@@ -15446,7 +15444,7 @@
         <v>4306.0</v>
       </c>
       <c r="B837" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C837" s="4">
         <v>0.0</v>
@@ -15456,15 +15454,15 @@
       </c>
       <c r="E837" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="838" ht="17.25" customHeight="1">
       <c r="A838" s="3">
         <v>4316.0</v>
       </c>
-      <c r="B838" s="5" t="s">
-        <v>5</v>
+      <c r="B838" s="4">
+        <v>1.0</v>
       </c>
       <c r="C838" s="4">
         <v>0.0</v>
@@ -15474,7 +15472,7 @@
       </c>
       <c r="E838" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>-01</v>
+        <v>101</v>
       </c>
     </row>
     <row r="839" ht="17.25" customHeight="1">
@@ -15482,7 +15480,7 @@
         <v>4318.0</v>
       </c>
       <c r="B839" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C839" s="4">
         <v>0.0</v>
@@ -15492,7 +15490,7 @@
       </c>
       <c r="E839" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="840" ht="17.25" customHeight="1">
@@ -15500,7 +15498,7 @@
         <v>4324.0</v>
       </c>
       <c r="B840" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C840" s="4">
         <v>0.0</v>
@@ -15510,15 +15508,15 @@
       </c>
       <c r="E840" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="841" ht="17.25" customHeight="1">
       <c r="A841" s="3">
         <v>4326.0</v>
       </c>
-      <c r="B841" s="5" t="s">
-        <v>5</v>
+      <c r="B841" s="4">
+        <v>1.0</v>
       </c>
       <c r="C841" s="4">
         <v>0.0</v>
@@ -15528,7 +15526,7 @@
       </c>
       <c r="E841" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>-00</v>
+        <v>100</v>
       </c>
     </row>
     <row r="842" ht="17.25" customHeight="1">
@@ -15589,8 +15587,8 @@
       <c r="A845" s="3">
         <v>4352.0</v>
       </c>
-      <c r="B845" s="5" t="s">
-        <v>5</v>
+      <c r="B845" s="4">
+        <v>1.0</v>
       </c>
       <c r="C845" s="5" t="s">
         <v>5</v>
@@ -15600,7 +15598,7 @@
       </c>
       <c r="E845" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>--1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="846" ht="17.25" customHeight="1">
@@ -15680,7 +15678,7 @@
         <v>4385.0</v>
       </c>
       <c r="B850" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C850" s="4">
         <v>0.0</v>
@@ -15690,7 +15688,7 @@
       </c>
       <c r="E850" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="851" ht="17.25" customHeight="1">
@@ -15698,7 +15696,7 @@
         <v>4386.0</v>
       </c>
       <c r="B851" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C851" s="4">
         <v>0.0</v>
@@ -15708,7 +15706,7 @@
       </c>
       <c r="E851" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="852" ht="17.25" customHeight="1">
@@ -15752,7 +15750,7 @@
         <v>4410.0</v>
       </c>
       <c r="B854" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C854" s="4">
         <v>1.0</v>
@@ -15762,7 +15760,7 @@
       </c>
       <c r="E854" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="855" ht="17.25" customHeight="1">
@@ -15788,7 +15786,7 @@
         <v>4420.0</v>
       </c>
       <c r="B856" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C856" s="4">
         <v>0.0</v>
@@ -15798,7 +15796,7 @@
       </c>
       <c r="E856" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="857" ht="17.25" customHeight="1">
@@ -15806,7 +15804,7 @@
         <v>4433.0</v>
       </c>
       <c r="B857" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C857" s="4">
         <v>0.0</v>
@@ -15816,7 +15814,7 @@
       </c>
       <c r="E857" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="858" ht="17.25" customHeight="1">
@@ -15824,7 +15822,7 @@
         <v>4434.0</v>
       </c>
       <c r="B858" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C858" s="4">
         <v>0.0</v>
@@ -15834,7 +15832,7 @@
       </c>
       <c r="E858" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="859" ht="17.25" customHeight="1">
@@ -15896,7 +15894,7 @@
         <v>4458.0</v>
       </c>
       <c r="B862" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C862" s="4">
         <v>1.0</v>
@@ -15906,7 +15904,7 @@
       </c>
       <c r="E862" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="863" ht="17.25" customHeight="1">
@@ -15914,7 +15912,7 @@
         <v>4460.0</v>
       </c>
       <c r="B863" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C863" s="4">
         <v>1.0</v>
@@ -15924,7 +15922,7 @@
       </c>
       <c r="E863" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="864" ht="17.25" customHeight="1">
@@ -15932,7 +15930,7 @@
         <v>4467.0</v>
       </c>
       <c r="B864" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C864" s="5" t="s">
         <v>5</v>
@@ -15942,7 +15940,7 @@
       </c>
       <c r="E864" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1-0</v>
+        <v>0-0</v>
       </c>
     </row>
     <row r="865" ht="17.25" customHeight="1">
@@ -15986,7 +15984,7 @@
         <v>4473.0</v>
       </c>
       <c r="B867" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C867" s="4">
         <v>0.0</v>
@@ -15996,7 +15994,7 @@
       </c>
       <c r="E867" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="868" ht="17.25" customHeight="1">
@@ -16004,7 +16002,7 @@
         <v>4480.0</v>
       </c>
       <c r="B868" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C868" s="4">
         <v>0.0</v>
@@ -16014,7 +16012,7 @@
       </c>
       <c r="E868" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="869" ht="17.25" customHeight="1">
@@ -16022,7 +16020,7 @@
         <v>4483.0</v>
       </c>
       <c r="B869" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C869" s="4">
         <v>0.0</v>
@@ -16032,7 +16030,7 @@
       </c>
       <c r="E869" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="870" ht="17.25" customHeight="1">
@@ -16040,7 +16038,7 @@
         <v>4494.0</v>
       </c>
       <c r="B870" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C870" s="4">
         <v>0.0</v>
@@ -16050,7 +16048,7 @@
       </c>
       <c r="E870" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="871" ht="17.25" customHeight="1">
@@ -16076,7 +16074,7 @@
         <v>4496.0</v>
       </c>
       <c r="B872" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C872" s="4">
         <v>0.0</v>
@@ -16086,7 +16084,7 @@
       </c>
       <c r="E872" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="873" ht="17.25" customHeight="1">
@@ -16112,7 +16110,7 @@
         <v>4499.0</v>
       </c>
       <c r="B874" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C874" s="4">
         <v>0.0</v>
@@ -16122,15 +16120,15 @@
       </c>
       <c r="E874" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="875" ht="17.25" customHeight="1">
       <c r="A875" s="3">
         <v>4500.0</v>
       </c>
-      <c r="B875" s="5" t="s">
-        <v>5</v>
+      <c r="B875" s="4">
+        <v>1.0</v>
       </c>
       <c r="C875" s="4">
         <v>0.0</v>
@@ -16140,7 +16138,7 @@
       </c>
       <c r="E875" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>-00</v>
+        <v>100</v>
       </c>
     </row>
     <row r="876" ht="17.25" customHeight="1">
@@ -16148,7 +16146,7 @@
         <v>4520.0</v>
       </c>
       <c r="B876" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C876" s="4">
         <v>1.0</v>
@@ -16158,7 +16156,7 @@
       </c>
       <c r="E876" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="877" ht="17.25" customHeight="1">
@@ -16166,7 +16164,7 @@
         <v>4534.0</v>
       </c>
       <c r="B877" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C877" s="4">
         <v>0.0</v>
@@ -16176,7 +16174,7 @@
       </c>
       <c r="E877" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="878" ht="17.25" customHeight="1">
@@ -16184,7 +16182,7 @@
         <v>4535.0</v>
       </c>
       <c r="B878" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C878" s="4">
         <v>0.0</v>
@@ -16194,7 +16192,7 @@
       </c>
       <c r="E878" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="879" ht="17.25" customHeight="1">
@@ -16256,7 +16254,7 @@
         <v>4553.0</v>
       </c>
       <c r="B882" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C882" s="4">
         <v>0.0</v>
@@ -16266,7 +16264,7 @@
       </c>
       <c r="E882" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="883" ht="17.25" customHeight="1">
@@ -16274,7 +16272,7 @@
         <v>4554.0</v>
       </c>
       <c r="B883" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C883" s="4">
         <v>1.0</v>
@@ -16284,7 +16282,7 @@
       </c>
       <c r="E883" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>011</v>
+        <v>111</v>
       </c>
     </row>
     <row r="884" ht="17.25" customHeight="1">
@@ -16292,7 +16290,7 @@
         <v>4564.0</v>
       </c>
       <c r="B884" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C884" s="4">
         <v>0.0</v>
@@ -16302,7 +16300,7 @@
       </c>
       <c r="E884" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="885" ht="17.25" customHeight="1">
@@ -16366,15 +16364,15 @@
       <c r="B888" s="4">
         <v>1.0</v>
       </c>
-      <c r="C888" s="5" t="s">
-        <v>5</v>
+      <c r="C888" s="4">
+        <v>1.0</v>
       </c>
       <c r="D888" s="4">
         <v>0.0</v>
       </c>
       <c r="E888" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1-0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="889" ht="17.25" customHeight="1">
@@ -16436,7 +16434,7 @@
         <v>4619.0</v>
       </c>
       <c r="B892" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C892" s="4">
         <v>1.0</v>
@@ -16446,7 +16444,7 @@
       </c>
       <c r="E892" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="893" ht="17.25" customHeight="1">
@@ -16454,7 +16452,7 @@
         <v>4620.0</v>
       </c>
       <c r="B893" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C893" s="4">
         <v>0.0</v>
@@ -16464,7 +16462,7 @@
       </c>
       <c r="E893" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="894" ht="17.25" customHeight="1">
@@ -16472,7 +16470,7 @@
         <v>4622.0</v>
       </c>
       <c r="B894" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C894" s="4">
         <v>1.0</v>
@@ -16482,7 +16480,7 @@
       </c>
       <c r="E894" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="895" ht="17.25" customHeight="1">
@@ -16490,7 +16488,7 @@
         <v>4627.0</v>
       </c>
       <c r="B895" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C895" s="4">
         <v>0.0</v>
@@ -16500,7 +16498,7 @@
       </c>
       <c r="E895" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="896" ht="17.25" customHeight="1">
@@ -16508,7 +16506,7 @@
         <v>4631.0</v>
       </c>
       <c r="B896" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C896" s="4">
         <v>1.0</v>
@@ -16518,7 +16516,7 @@
       </c>
       <c r="E896" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="897" ht="17.25" customHeight="1">
@@ -16526,17 +16524,17 @@
         <v>4640.0</v>
       </c>
       <c r="B897" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C897" s="5" t="s">
-        <v>5</v>
+        <v>0.0</v>
+      </c>
+      <c r="C897" s="4">
+        <v>0.0</v>
       </c>
       <c r="D897" s="4">
         <v>1.0</v>
       </c>
       <c r="E897" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1-1</v>
+        <v>001</v>
       </c>
     </row>
     <row r="898" ht="17.25" customHeight="1">
@@ -16544,7 +16542,7 @@
         <v>4641.0</v>
       </c>
       <c r="B898" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C898" s="4">
         <v>0.0</v>
@@ -16554,7 +16552,7 @@
       </c>
       <c r="E898" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="899" ht="17.25" customHeight="1">
@@ -16562,7 +16560,7 @@
         <v>4642.0</v>
       </c>
       <c r="B899" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C899" s="4">
         <v>1.0</v>
@@ -16572,7 +16570,7 @@
       </c>
       <c r="E899" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="900" ht="17.25" customHeight="1">
@@ -16580,7 +16578,7 @@
         <v>4643.0</v>
       </c>
       <c r="B900" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C900" s="4">
         <v>1.0</v>
@@ -16590,7 +16588,7 @@
       </c>
       <c r="E900" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="901" ht="17.25" customHeight="1">
@@ -16598,7 +16596,7 @@
         <v>4654.0</v>
       </c>
       <c r="B901" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C901" s="5" t="s">
         <v>5</v>
@@ -16608,7 +16606,7 @@
       </c>
       <c r="E901" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1-0</v>
+        <v>0-0</v>
       </c>
     </row>
     <row r="902" ht="17.25" customHeight="1">
@@ -16670,7 +16668,7 @@
         <v>4666.0</v>
       </c>
       <c r="B905" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C905" s="4">
         <v>1.0</v>
@@ -16680,7 +16678,7 @@
       </c>
       <c r="E905" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="906" ht="17.25" customHeight="1">
@@ -16688,7 +16686,7 @@
         <v>4669.0</v>
       </c>
       <c r="B906" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C906" s="4">
         <v>0.0</v>
@@ -16698,7 +16696,7 @@
       </c>
       <c r="E906" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="907" ht="17.25" customHeight="1">
@@ -16724,7 +16722,7 @@
         <v>4676.0</v>
       </c>
       <c r="B908" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C908" s="4">
         <v>1.0</v>
@@ -16734,7 +16732,7 @@
       </c>
       <c r="E908" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>011</v>
+        <v>111</v>
       </c>
     </row>
     <row r="909" ht="17.25" customHeight="1">
@@ -16742,7 +16740,7 @@
         <v>4683.0</v>
       </c>
       <c r="B909" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C909" s="5" t="s">
         <v>5</v>
@@ -16752,7 +16750,7 @@
       </c>
       <c r="E909" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1-0</v>
+        <v>0-0</v>
       </c>
     </row>
     <row r="910" ht="17.25" customHeight="1">
@@ -16760,7 +16758,7 @@
         <v>4694.0</v>
       </c>
       <c r="B910" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C910" s="4">
         <v>0.0</v>
@@ -16770,7 +16768,7 @@
       </c>
       <c r="E910" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="911" ht="17.25" customHeight="1">
@@ -16778,7 +16776,7 @@
         <v>4695.0</v>
       </c>
       <c r="B911" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C911" s="4">
         <v>1.0</v>
@@ -16788,7 +16786,7 @@
       </c>
       <c r="E911" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="912" ht="17.25" customHeight="1">
@@ -16798,15 +16796,15 @@
       <c r="B912" s="4">
         <v>1.0</v>
       </c>
-      <c r="C912" s="5" t="s">
-        <v>5</v>
+      <c r="C912" s="4">
+        <v>1.0</v>
       </c>
       <c r="D912" s="4">
         <v>0.0</v>
       </c>
       <c r="E912" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1-0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="913" ht="17.25" customHeight="1">
@@ -16832,7 +16830,7 @@
         <v>4703.0</v>
       </c>
       <c r="B914" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C914" s="4">
         <v>0.0</v>
@@ -16842,7 +16840,7 @@
       </c>
       <c r="E914" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="915" ht="17.25" customHeight="1">
@@ -16850,7 +16848,7 @@
         <v>4705.0</v>
       </c>
       <c r="B915" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C915" s="4">
         <v>0.0</v>
@@ -16860,7 +16858,7 @@
       </c>
       <c r="E915" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="916" ht="17.25" customHeight="1">
@@ -16868,7 +16866,7 @@
         <v>4710.0</v>
       </c>
       <c r="B916" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C916" s="4">
         <v>0.0</v>
@@ -16878,7 +16876,7 @@
       </c>
       <c r="E916" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="917" ht="17.25" customHeight="1">
@@ -16904,7 +16902,7 @@
         <v>4716.0</v>
       </c>
       <c r="B918" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C918" s="4">
         <v>0.0</v>
@@ -16914,7 +16912,7 @@
       </c>
       <c r="E918" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="919" ht="17.25" customHeight="1">
@@ -16922,7 +16920,7 @@
         <v>4722.0</v>
       </c>
       <c r="B919" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C919" s="4">
         <v>0.0</v>
@@ -16932,7 +16930,7 @@
       </c>
       <c r="E919" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="920" ht="17.25" customHeight="1">
@@ -16940,7 +16938,7 @@
         <v>4723.0</v>
       </c>
       <c r="B920" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C920" s="4">
         <v>0.0</v>
@@ -16950,7 +16948,7 @@
       </c>
       <c r="E920" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="921" ht="17.25" customHeight="1">
@@ -16958,7 +16956,7 @@
         <v>4736.0</v>
       </c>
       <c r="B921" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C921" s="4">
         <v>0.0</v>
@@ -16968,7 +16966,7 @@
       </c>
       <c r="E921" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="922" ht="17.25" customHeight="1">
@@ -16976,7 +16974,7 @@
         <v>4766.0</v>
       </c>
       <c r="B922" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C922" s="4">
         <v>1.0</v>
@@ -16986,7 +16984,7 @@
       </c>
       <c r="E922" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="923" ht="17.25" customHeight="1">
@@ -17012,7 +17010,7 @@
         <v>4790.0</v>
       </c>
       <c r="B924" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C924" s="4">
         <v>1.0</v>
@@ -17022,7 +17020,7 @@
       </c>
       <c r="E924" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="925" ht="17.25" customHeight="1">
@@ -17066,7 +17064,7 @@
         <v>4802.0</v>
       </c>
       <c r="B927" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C927" s="4">
         <v>1.0</v>
@@ -17076,7 +17074,7 @@
       </c>
       <c r="E927" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="928" ht="17.25" customHeight="1">
@@ -17084,7 +17082,7 @@
         <v>4805.0</v>
       </c>
       <c r="B928" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C928" s="4">
         <v>0.0</v>
@@ -17094,7 +17092,7 @@
       </c>
       <c r="E928" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="929" ht="17.25" customHeight="1">
@@ -17102,7 +17100,7 @@
         <v>4806.0</v>
       </c>
       <c r="B929" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C929" s="4">
         <v>1.0</v>
@@ -17112,7 +17110,7 @@
       </c>
       <c r="E929" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="930" ht="17.25" customHeight="1">
@@ -17120,7 +17118,7 @@
         <v>4807.0</v>
       </c>
       <c r="B930" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C930" s="4">
         <v>0.0</v>
@@ -17130,7 +17128,7 @@
       </c>
       <c r="E930" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="931" ht="17.25" customHeight="1">
@@ -17138,7 +17136,7 @@
         <v>4811.0</v>
       </c>
       <c r="B931" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C931" s="4">
         <v>1.0</v>
@@ -17148,7 +17146,7 @@
       </c>
       <c r="E931" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="932" ht="17.25" customHeight="1">
@@ -17174,7 +17172,7 @@
         <v>4816.0</v>
       </c>
       <c r="B933" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C933" s="4">
         <v>0.0</v>
@@ -17184,7 +17182,7 @@
       </c>
       <c r="E933" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="934" ht="17.25" customHeight="1">
@@ -17210,7 +17208,7 @@
         <v>4835.0</v>
       </c>
       <c r="B935" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C935" s="4">
         <v>1.0</v>
@@ -17220,7 +17218,7 @@
       </c>
       <c r="E935" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="936" ht="17.25" customHeight="1">
@@ -17228,7 +17226,7 @@
         <v>4843.0</v>
       </c>
       <c r="B936" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C936" s="4">
         <v>0.0</v>
@@ -17238,7 +17236,7 @@
       </c>
       <c r="E936" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="937" ht="17.25" customHeight="1">
@@ -17264,7 +17262,7 @@
         <v>4849.0</v>
       </c>
       <c r="B938" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C938" s="4">
         <v>0.0</v>
@@ -17274,7 +17272,7 @@
       </c>
       <c r="E938" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="939" ht="17.25" customHeight="1">
@@ -17300,7 +17298,7 @@
         <v>4858.0</v>
       </c>
       <c r="B940" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C940" s="4">
         <v>1.0</v>
@@ -17310,7 +17308,7 @@
       </c>
       <c r="E940" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="941" ht="17.25" customHeight="1">
@@ -17372,7 +17370,7 @@
         <v>4867.0</v>
       </c>
       <c r="B944" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C944" s="4">
         <v>0.0</v>
@@ -17382,7 +17380,7 @@
       </c>
       <c r="E944" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="945" ht="17.25" customHeight="1">
@@ -17390,7 +17388,7 @@
         <v>4870.0</v>
       </c>
       <c r="B945" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C945" s="4">
         <v>1.0</v>
@@ -17400,7 +17398,7 @@
       </c>
       <c r="E945" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="946" ht="17.25" customHeight="1">
@@ -17426,7 +17424,7 @@
         <v>4872.0</v>
       </c>
       <c r="B947" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C947" s="4">
         <v>0.0</v>
@@ -17436,7 +17434,7 @@
       </c>
       <c r="E947" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="948" ht="17.25" customHeight="1">
@@ -17444,7 +17442,7 @@
         <v>4873.0</v>
       </c>
       <c r="B948" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C948" s="4">
         <v>1.0</v>
@@ -17454,7 +17452,7 @@
       </c>
       <c r="E948" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="949" ht="17.25" customHeight="1">
@@ -17480,7 +17478,7 @@
         <v>4880.0</v>
       </c>
       <c r="B950" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C950" s="4">
         <v>0.0</v>
@@ -17490,7 +17488,7 @@
       </c>
       <c r="E950" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="951" ht="17.25" customHeight="1">
@@ -17498,7 +17496,7 @@
         <v>4886.0</v>
       </c>
       <c r="B951" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C951" s="4">
         <v>0.0</v>
@@ -17508,7 +17506,7 @@
       </c>
       <c r="E951" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="952" ht="17.25" customHeight="1">
@@ -17534,7 +17532,7 @@
         <v>4894.0</v>
       </c>
       <c r="B953" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C953" s="4">
         <v>1.0</v>
@@ -17544,7 +17542,7 @@
       </c>
       <c r="E953" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>010</v>
       </c>
     </row>
     <row r="954" ht="17.25" customHeight="1">
@@ -17570,7 +17568,7 @@
         <v>4896.0</v>
       </c>
       <c r="B955" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C955" s="4">
         <v>1.0</v>
@@ -17580,7 +17578,7 @@
       </c>
       <c r="E955" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="956" ht="17.25" customHeight="1">
@@ -17624,7 +17622,7 @@
         <v>4918.0</v>
       </c>
       <c r="B958" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C958" s="4">
         <v>0.0</v>
@@ -17634,7 +17632,7 @@
       </c>
       <c r="E958" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="959" ht="17.25" customHeight="1">
@@ -17678,7 +17676,7 @@
         <v>4931.0</v>
       </c>
       <c r="B961" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C961" s="4">
         <v>1.0</v>
@@ -17688,7 +17686,7 @@
       </c>
       <c r="E961" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="962" ht="17.25" customHeight="1">
@@ -17696,7 +17694,7 @@
         <v>4937.0</v>
       </c>
       <c r="B962" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C962" s="4">
         <v>1.0</v>
@@ -17706,7 +17704,7 @@
       </c>
       <c r="E962" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="963" ht="17.25" customHeight="1">
@@ -17714,7 +17712,7 @@
         <v>4939.0</v>
       </c>
       <c r="B963" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C963" s="4">
         <v>0.0</v>
@@ -17724,7 +17722,7 @@
       </c>
       <c r="E963" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="964" ht="17.25" customHeight="1">
@@ -17732,7 +17730,7 @@
         <v>4941.0</v>
       </c>
       <c r="B964" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C964" s="4">
         <v>0.0</v>
@@ -17742,7 +17740,7 @@
       </c>
       <c r="E964" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="965" ht="17.25" customHeight="1">
@@ -17822,7 +17820,7 @@
         <v>5005.0</v>
       </c>
       <c r="B969" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C969" s="4">
         <v>1.0</v>
@@ -17832,7 +17830,7 @@
       </c>
       <c r="E969" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>010</v>
+        <v>110</v>
       </c>
     </row>
     <row r="970" ht="17.25" customHeight="1">
@@ -17894,7 +17892,7 @@
         <v>5018.0</v>
       </c>
       <c r="B973" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C973" s="4">
         <v>0.0</v>
@@ -17904,7 +17902,7 @@
       </c>
       <c r="E973" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="974" ht="17.25" customHeight="1">
@@ -17912,7 +17910,7 @@
         <v>5020.0</v>
       </c>
       <c r="B974" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C974" s="4">
         <v>0.0</v>
@@ -17922,7 +17920,7 @@
       </c>
       <c r="E974" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="975" ht="17.25" customHeight="1">
@@ -17948,17 +17946,17 @@
         <v>5024.0</v>
       </c>
       <c r="B976" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C976" s="5" t="s">
-        <v>5</v>
+        <v>0.0</v>
+      </c>
+      <c r="C976" s="4">
+        <v>0.0</v>
       </c>
       <c r="D976" s="4">
         <v>1.0</v>
       </c>
       <c r="E976" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1-1</v>
+        <v>001</v>
       </c>
     </row>
     <row r="977" ht="17.25" customHeight="1">
@@ -17966,7 +17964,7 @@
         <v>5030.0</v>
       </c>
       <c r="B977" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C977" s="4">
         <v>0.0</v>
@@ -17976,7 +17974,7 @@
       </c>
       <c r="E977" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="978" ht="17.25" customHeight="1">
@@ -17984,7 +17982,7 @@
         <v>5036.0</v>
       </c>
       <c r="B978" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C978" s="5" t="s">
         <v>5</v>
@@ -17994,7 +17992,7 @@
       </c>
       <c r="E978" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0-0</v>
+        <v>1-0</v>
       </c>
     </row>
     <row r="979" ht="17.25" customHeight="1">
@@ -18020,7 +18018,7 @@
         <v>5039.0</v>
       </c>
       <c r="B980" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C980" s="4">
         <v>0.0</v>
@@ -18030,7 +18028,7 @@
       </c>
       <c r="E980" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="981" ht="17.25" customHeight="1">
@@ -18038,7 +18036,7 @@
         <v>5054.0</v>
       </c>
       <c r="B981" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C981" s="4">
         <v>0.0</v>
@@ -18048,7 +18046,7 @@
       </c>
       <c r="E981" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="982" ht="17.25" customHeight="1">
@@ -18092,7 +18090,7 @@
         <v>5068.0</v>
       </c>
       <c r="B984" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C984" s="4">
         <v>0.0</v>
@@ -18102,7 +18100,7 @@
       </c>
       <c r="E984" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="985" ht="17.25" customHeight="1">
@@ -18182,7 +18180,7 @@
         <v>5099.0</v>
       </c>
       <c r="B989" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C989" s="4">
         <v>0.0</v>
@@ -18192,7 +18190,7 @@
       </c>
       <c r="E989" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="990" ht="17.25" customHeight="1">
@@ -18200,7 +18198,7 @@
         <v>5103.0</v>
       </c>
       <c r="B990" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C990" s="4">
         <v>1.0</v>
@@ -18210,7 +18208,7 @@
       </c>
       <c r="E990" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="991" ht="17.25" customHeight="1">
@@ -18238,15 +18236,15 @@
       <c r="B992" s="4">
         <v>1.0</v>
       </c>
-      <c r="C992" s="5" t="s">
-        <v>5</v>
+      <c r="C992" s="4">
+        <v>0.0</v>
       </c>
       <c r="D992" s="4">
         <v>1.0</v>
       </c>
       <c r="E992" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1-1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="993" ht="17.25" customHeight="1">
@@ -18290,7 +18288,7 @@
         <v>5129.0</v>
       </c>
       <c r="B995" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C995" s="5" t="s">
         <v>5</v>
@@ -18300,7 +18298,7 @@
       </c>
       <c r="E995" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0-1</v>
+        <v>1-1</v>
       </c>
     </row>
     <row r="996" ht="17.25" customHeight="1">
@@ -18308,7 +18306,7 @@
         <v>5134.0</v>
       </c>
       <c r="B996" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C996" s="4">
         <v>1.0</v>
@@ -18318,7 +18316,7 @@
       </c>
       <c r="E996" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>011</v>
       </c>
     </row>
     <row r="997" ht="17.25" customHeight="1">
@@ -18344,7 +18342,7 @@
         <v>5142.0</v>
       </c>
       <c r="B998" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C998" s="4">
         <v>0.0</v>
@@ -18354,7 +18352,7 @@
       </c>
       <c r="E998" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="999" ht="17.25" customHeight="1">
@@ -18380,7 +18378,7 @@
         <v>5150.0</v>
       </c>
       <c r="B1000" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C1000" s="4">
         <v>0.0</v>
@@ -18390,7 +18388,7 @@
       </c>
       <c r="E1000" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1001" ht="17.25" customHeight="1">
@@ -18416,7 +18414,7 @@
         <v>5158.0</v>
       </c>
       <c r="B1002" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C1002" s="4">
         <v>0.0</v>
@@ -18426,7 +18424,7 @@
       </c>
       <c r="E1002" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="1003" ht="17.25" customHeight="1">
@@ -18452,7 +18450,7 @@
         <v>5171.0</v>
       </c>
       <c r="B1004" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C1004" s="4">
         <v>1.0</v>
@@ -18462,15 +18460,15 @@
       </c>
       <c r="E1004" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>011</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1005" ht="17.25" customHeight="1">
       <c r="A1005" s="3">
         <v>5178.0</v>
       </c>
-      <c r="B1005" s="5" t="s">
-        <v>5</v>
+      <c r="B1005" s="4">
+        <v>0.0</v>
       </c>
       <c r="C1005" s="4">
         <v>1.0</v>
@@ -18480,7 +18478,7 @@
       </c>
       <c r="E1005" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>-10</v>
+        <v>010</v>
       </c>
     </row>
     <row r="1006" ht="17.25" customHeight="1">
@@ -18524,7 +18522,7 @@
         <v>5204.0</v>
       </c>
       <c r="B1008" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C1008" s="4">
         <v>0.0</v>
@@ -18534,7 +18532,7 @@
       </c>
       <c r="E1008" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1009" ht="17.25" customHeight="1">
@@ -18560,7 +18558,7 @@
         <v>5208.0</v>
       </c>
       <c r="B1010" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C1010" s="4">
         <v>1.0</v>
@@ -18570,7 +18568,7 @@
       </c>
       <c r="E1010" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>011</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1011" ht="17.25" customHeight="1">
@@ -18596,7 +18594,7 @@
         <v>5212.0</v>
       </c>
       <c r="B1012" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C1012" s="4">
         <v>0.0</v>
@@ -18606,7 +18604,7 @@
       </c>
       <c r="E1012" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1013" ht="17.25" customHeight="1">
@@ -18614,7 +18612,7 @@
         <v>5221.0</v>
       </c>
       <c r="B1013" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C1013" s="4">
         <v>0.0</v>
@@ -18624,7 +18622,7 @@
       </c>
       <c r="E1013" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1014" ht="17.25" customHeight="1">
@@ -18632,17 +18630,17 @@
         <v>5222.0</v>
       </c>
       <c r="B1014" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C1014" s="5" t="s">
-        <v>5</v>
+        <v>1.0</v>
+      </c>
+      <c r="C1014" s="4">
+        <v>0.0</v>
       </c>
       <c r="D1014" s="4">
         <v>1.0</v>
       </c>
       <c r="E1014" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0-1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1015" ht="17.25" customHeight="1">
@@ -18650,7 +18648,7 @@
         <v>5226.0</v>
       </c>
       <c r="B1015" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C1015" s="4">
         <v>0.0</v>
@@ -18660,7 +18658,7 @@
       </c>
       <c r="E1015" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="1016" ht="17.25" customHeight="1">
@@ -18704,7 +18702,7 @@
         <v>5239.0</v>
       </c>
       <c r="B1018" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C1018" s="4">
         <v>0.0</v>
@@ -18714,7 +18712,7 @@
       </c>
       <c r="E1018" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="1019" ht="17.25" customHeight="1">
@@ -18722,7 +18720,7 @@
         <v>5249.0</v>
       </c>
       <c r="B1019" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C1019" s="4">
         <v>0.0</v>
@@ -18732,7 +18730,7 @@
       </c>
       <c r="E1019" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1020" ht="17.25" customHeight="1">
@@ -18740,7 +18738,7 @@
         <v>5259.0</v>
       </c>
       <c r="B1020" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C1020" s="4">
         <v>0.0</v>
@@ -18750,7 +18748,7 @@
       </c>
       <c r="E1020" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="1021" ht="17.25" customHeight="1">
@@ -18758,7 +18756,7 @@
         <v>5264.0</v>
       </c>
       <c r="B1021" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C1021" s="4">
         <v>1.0</v>
@@ -18768,7 +18766,7 @@
       </c>
       <c r="E1021" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>011</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1022" ht="17.25" customHeight="1">
@@ -18794,7 +18792,7 @@
         <v>5271.0</v>
       </c>
       <c r="B1023" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C1023" s="4">
         <v>0.0</v>
@@ -18804,7 +18802,7 @@
       </c>
       <c r="E1023" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1024" ht="17.25" customHeight="1">
@@ -18812,7 +18810,7 @@
         <v>5275.0</v>
       </c>
       <c r="B1024" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C1024" s="4">
         <v>0.0</v>
@@ -18822,7 +18820,7 @@
       </c>
       <c r="E1024" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="1025" ht="17.25" customHeight="1">
@@ -18830,7 +18828,7 @@
         <v>5277.0</v>
       </c>
       <c r="B1025" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C1025" s="4">
         <v>0.0</v>
@@ -18840,7 +18838,7 @@
       </c>
       <c r="E1025" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>001</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1026" ht="17.25" customHeight="1">
@@ -18848,7 +18846,7 @@
         <v>5322.0</v>
       </c>
       <c r="B1026" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C1026" s="4">
         <v>0.0</v>
@@ -18858,7 +18856,7 @@
       </c>
       <c r="E1026" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>001</v>
       </c>
     </row>
     <row r="1027" ht="17.25" customHeight="1">
@@ -18920,17 +18918,17 @@
         <v>5347.0</v>
       </c>
       <c r="B1030" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C1030" s="5" t="s">
-        <v>5</v>
+        <v>1.0</v>
+      </c>
+      <c r="C1030" s="4">
+        <v>1.0</v>
       </c>
       <c r="D1030" s="4">
         <v>0.0</v>
       </c>
       <c r="E1030" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0-0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1031" ht="17.25" customHeight="1">
@@ -18938,7 +18936,7 @@
         <v>5352.0</v>
       </c>
       <c r="B1031" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C1031" s="4">
         <v>0.0</v>
@@ -18948,7 +18946,7 @@
       </c>
       <c r="E1031" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="1032" ht="17.25" customHeight="1">
@@ -18992,7 +18990,7 @@
         <v>5366.0</v>
       </c>
       <c r="B1034" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C1034" s="4">
         <v>0.0</v>
@@ -19002,7 +19000,7 @@
       </c>
       <c r="E1034" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>000</v>
       </c>
     </row>
     <row r="1035" ht="17.25" customHeight="1">
